--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T15:24:06+00:00</t>
+    <t>2025-07-30T08:12:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:12:57+00:00</t>
+    <t>2025-07-30T08:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T08:37:32+00:00</t>
+    <t>2025-07-30T16:41:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:41:01+00:00</t>
+    <t>2025-07-30T16:51:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:51:38+00:00</t>
+    <t>2025-07-30T16:53:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:53:20+00:00</t>
+    <t>2025-07-30T16:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T16:54:54+00:00</t>
+    <t>2025-07-31T08:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:12:23+00:00</t>
+    <t>2025-07-31T08:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T08:39:10+00:00</t>
+    <t>2025-07-31T12:36:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:22:53+00:00</t>
+    <t>2025-07-31T14:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:57:51+00:00</t>
+    <t>2025-07-31T15:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T15:04:06+00:00</t>
+    <t>2025-07-31T17:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:00:40+00:00</t>
+    <t>2025-07-31T17:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T17:28:56+00:00</t>
+    <t>2025-08-01T05:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T05:49:55+00:00</t>
+    <t>2025-08-01T06:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3132,17 +3132,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3151,28 +3151,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:09:21+00:00</t>
+    <t>2025-08-01T06:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3132,17 +3132,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3151,28 +3151,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:28:22+00:00</t>
+    <t>2025-08-01T06:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:41:28+00:00</t>
+    <t>2025-08-01T06:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3132,17 +3132,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3151,28 +3151,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="886">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:49:21+00:00</t>
+    <t>2025-09-10T13:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1828,6 +1828,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1838,6 +1841,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3132,17 +3139,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3151,28 +3158,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19232,7 +19239,7 @@
         <v>411</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>412</v>
+        <v>570</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>82</v>
@@ -19285,7 +19292,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>416</v>
@@ -19407,7 +19414,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>427</v>
@@ -19527,7 +19534,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>436</v>
@@ -19645,7 +19652,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>443</v>
@@ -19671,7 +19678,7 @@
         <v>92</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="L138" t="s" s="2">
         <v>445</v>
@@ -19765,10 +19772,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19791,70 +19798,70 @@
         <v>92</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="P139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q139" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q139" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19872,13 +19879,13 @@
         <v>82</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>82</v>
@@ -19889,10 +19896,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19915,19 +19922,19 @@
         <v>92</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>82</v>
@@ -19964,7 +19971,7 @@
         <v>82</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AC140" s="2"/>
       <c r="AD140" t="s" s="2">
@@ -19974,7 +19981,7 @@
         <v>118</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19992,16 +19999,16 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -20009,13 +20016,13 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>82</v>
@@ -20037,19 +20044,19 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -20098,7 +20105,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20116,16 +20123,16 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20133,10 +20140,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20251,10 +20258,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20371,10 +20378,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20400,16 +20407,16 @@
         <v>175</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20437,10 +20444,10 @@
         <v>266</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>82</v>
@@ -20458,7 +20465,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20485,7 +20492,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20493,10 +20500,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20522,13 +20529,13 @@
         <v>105</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>287</v>
@@ -20580,7 +20587,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20607,7 +20614,7 @@
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20615,14 +20622,14 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E146" s="2"/>
       <c r="F146" t="s" s="2">
@@ -20644,13 +20651,13 @@
         <v>105</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
@@ -20700,7 +20707,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20715,10 +20722,10 @@
         <v>103</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>82</v>
@@ -20727,7 +20734,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20735,14 +20742,14 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -20764,13 +20771,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -20820,7 +20827,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20835,10 +20842,10 @@
         <v>103</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>82</v>
@@ -20847,7 +20854,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20855,10 +20862,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20884,10 +20891,10 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20938,7 +20945,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20956,7 +20963,7 @@
         <v>82</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>82</v>
@@ -20965,7 +20972,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20973,10 +20980,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21002,10 +21009,10 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21056,7 +21063,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21074,7 +21081,7 @@
         <v>82</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -21083,7 +21090,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21091,10 +21098,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21120,14 +21127,14 @@
         <v>346</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -21176,7 +21183,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21203,7 +21210,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21211,13 +21218,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>82</v>
@@ -21239,19 +21246,19 @@
         <v>92</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>82</v>
@@ -21300,7 +21307,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21318,16 +21325,16 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21335,10 +21342,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21453,10 +21460,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21571,13 +21578,13 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D154" t="s" s="2">
         <v>82</v>
@@ -21599,13 +21606,13 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21671,7 +21678,7 @@
         <v>120</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>82</v>
@@ -21691,10 +21698,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21720,16 +21727,16 @@
         <v>175</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21757,10 +21764,10 @@
         <v>266</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>82</v>
@@ -21778,7 +21785,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21805,7 +21812,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21813,10 +21820,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21842,13 +21849,13 @@
         <v>105</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>287</v>
@@ -21900,7 +21907,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21927,7 +21934,7 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21935,14 +21942,14 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" t="s" s="2">
@@ -21964,13 +21971,13 @@
         <v>105</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -22020,7 +22027,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22035,10 +22042,10 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>82</v>
@@ -22047,7 +22054,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22055,14 +22062,14 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
@@ -22084,13 +22091,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -22140,7 +22147,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22155,10 +22162,10 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>82</v>
@@ -22167,7 +22174,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22175,10 +22182,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22204,10 +22211,10 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -22258,7 +22265,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22273,10 +22280,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22285,7 +22292,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22293,10 +22300,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22322,10 +22329,10 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -22376,7 +22383,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22394,7 +22401,7 @@
         <v>82</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22403,7 +22410,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22411,10 +22418,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22440,14 +22447,14 @@
         <v>346</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22496,7 +22503,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22523,7 +22530,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22531,10 +22538,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22557,19 +22564,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22618,7 +22625,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22630,13 +22637,13 @@
         <v>209</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK162" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22645,7 +22652,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22653,10 +22660,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22682,16 +22689,16 @@
         <v>175</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22720,7 +22727,7 @@
       </c>
       <c r="Y163" s="2"/>
       <c r="Z163" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>82</v>
@@ -22738,7 +22745,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22753,19 +22760,19 @@
         <v>103</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22773,10 +22780,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22799,19 +22806,19 @@
         <v>92</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22860,7 +22867,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22875,30 +22882,30 @@
         <v>103</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AP164" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22921,19 +22928,19 @@
         <v>92</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22982,7 +22989,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -23000,7 +23007,7 @@
         <v>82</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>109</v>
@@ -23009,7 +23016,7 @@
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -23017,10 +23024,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23055,7 +23062,7 @@
         <v>245</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23104,7 +23111,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23139,10 +23146,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23168,14 +23175,14 @@
         <v>405</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23204,7 +23211,7 @@
       </c>
       <c r="Y167" s="2"/>
       <c r="Z167" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>82</v>
@@ -23222,7 +23229,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23240,16 +23247,16 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23257,10 +23264,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23283,19 +23290,19 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23344,7 +23351,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23362,7 +23369,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>109</v>
@@ -23371,7 +23378,7 @@
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AP168" t="s" s="2">
         <v>82</v>
@@ -23379,10 +23386,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23405,19 +23412,19 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23466,7 +23473,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23484,7 +23491,7 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>109</v>
@@ -23493,7 +23500,7 @@
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23501,10 +23508,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23527,19 +23534,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23588,7 +23595,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23600,13 +23607,13 @@
         <v>82</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AK170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23623,10 +23630,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23741,10 +23748,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23857,13 +23864,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>82</v>
@@ -23885,13 +23892,13 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
@@ -23977,13 +23984,13 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>82</v>
@@ -24005,13 +24012,13 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -24097,14 +24104,14 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -24126,10 +24133,10 @@
         <v>112</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>115</v>
@@ -24184,7 +24191,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24219,10 +24226,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24248,14 +24255,14 @@
         <v>405</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24283,16 +24290,16 @@
         <v>157</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB176" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AC176" s="2"/>
       <c r="AD176" t="s" s="2">
@@ -24302,7 +24309,7 @@
         <v>118</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24320,7 +24327,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24329,7 +24336,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24337,13 +24344,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>82</v>
@@ -24368,14 +24375,14 @@
         <v>405</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24404,7 +24411,7 @@
       </c>
       <c r="Y177" s="2"/>
       <c r="Z177" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>82</v>
@@ -24422,7 +24429,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24440,7 +24447,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24449,7 +24456,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24457,13 +24464,13 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>82</v>
@@ -24488,14 +24495,14 @@
         <v>405</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24524,7 +24531,7 @@
       </c>
       <c r="Y178" s="2"/>
       <c r="Z178" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
@@ -24542,7 +24549,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24560,7 +24567,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24569,7 +24576,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24577,10 +24584,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24603,19 +24610,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24664,7 +24671,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24682,7 +24689,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>82</v>
@@ -24691,7 +24698,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24699,10 +24706,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24725,19 +24732,19 @@
         <v>82</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24786,7 +24793,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24798,13 +24805,13 @@
         <v>209</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>82</v>
@@ -24813,7 +24820,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24821,10 +24828,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24847,17 +24854,17 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24906,7 +24913,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24924,7 +24931,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>109</v>
@@ -24933,7 +24940,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24941,10 +24948,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24970,14 +24977,14 @@
         <v>175</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -25005,10 +25012,10 @@
         <v>266</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>82</v>
@@ -25026,7 +25033,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25044,7 +25051,7 @@
         <v>82</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>109</v>
@@ -25053,7 +25060,7 @@
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25061,10 +25068,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25090,14 +25097,14 @@
         <v>444</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25146,7 +25153,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25155,7 +25162,7 @@
         <v>91</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>103</v>
@@ -25164,7 +25171,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25173,7 +25180,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25181,10 +25188,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25210,10 +25217,10 @@
         <v>346</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -25264,7 +25271,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25282,7 +25289,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25299,10 +25306,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25325,19 +25332,19 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25386,7 +25393,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25404,10 +25411,10 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>82</v>
@@ -25421,10 +25428,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25539,10 +25546,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25659,14 +25666,14 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
@@ -25688,10 +25695,10 @@
         <v>112</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N188" t="s" s="2">
         <v>115</v>
@@ -25746,7 +25753,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25781,10 +25788,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25810,16 +25817,16 @@
         <v>405</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="P189" t="s" s="2">
         <v>82</v>
@@ -25868,7 +25875,7 @@
         <v>82</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>91</v>
@@ -25886,16 +25893,16 @@
         <v>82</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO189" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AP189" t="s" s="2">
         <v>82</v>
@@ -25903,10 +25910,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25929,19 +25936,19 @@
         <v>82</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>82</v>
@@ -25990,7 +25997,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -26008,16 +26015,16 @@
         <v>82</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AP190" t="s" s="2">
         <v>82</v>
@@ -26025,14 +26032,14 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
@@ -26051,16 +26058,16 @@
         <v>82</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26110,7 +26117,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -26128,7 +26135,7 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>109</v>
@@ -26137,7 +26144,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26145,10 +26152,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26171,19 +26178,19 @@
         <v>92</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26232,7 +26239,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26250,10 +26257,10 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
@@ -26267,10 +26274,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26293,19 +26300,19 @@
         <v>92</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>82</v>
@@ -26354,7 +26361,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26372,7 +26379,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26389,10 +26396,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26507,10 +26514,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26627,14 +26634,14 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" t="s" s="2">
@@ -26656,10 +26663,10 @@
         <v>112</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="N196" t="s" s="2">
         <v>115</v>
@@ -26714,7 +26721,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -26749,10 +26756,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26775,16 +26782,16 @@
         <v>92</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -26834,7 +26841,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>91</v>
@@ -26861,7 +26868,7 @@
         <v>82</v>
       </c>
       <c r="AO197" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="AP197" t="s" s="2">
         <v>82</v>
@@ -26869,10 +26876,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26898,10 +26905,10 @@
         <v>175</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -26931,28 +26938,28 @@
         <v>266</v>
       </c>
       <c r="Y198" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="Z198" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="AA198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE198" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF198" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>91</v>
@@ -26970,7 +26977,7 @@
         <v>82</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:58:18+00:00</t>
+    <t>2025-09-16T12:38:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T12:38:50+00:00</t>
+    <t>2025-09-17T15:36:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:36:32+00:00</t>
+    <t>2025-09-17T15:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:51:47+00:00</t>
+    <t>2025-09-19T12:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-19T12:04:16+00:00</t>
+    <t>2025-09-24T12:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="867">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:27:45+00:00</t>
+    <t>2025-09-24T14:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1775,9 +1775,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1788,10 +1785,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3086,17 +3079,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3105,28 +3098,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18468,7 +18461,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>553</v>
+        <v>395</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18521,7 +18514,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18643,7 +18636,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18763,7 +18756,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18881,7 +18874,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18907,7 +18900,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>558</v>
+        <v>427</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19001,10 +18994,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19027,26 +19020,26 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="O133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>565</v>
-      </c>
       <c r="R133" t="s" s="2">
         <v>82</v>
       </c>
@@ -19090,7 +19083,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19108,13 +19101,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19125,10 +19118,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19151,19 +19144,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19200,7 +19193,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19210,7 +19203,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19228,16 +19221,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO134" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19245,13 +19238,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19273,19 +19266,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19334,7 +19327,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19352,16 +19345,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19369,10 +19362,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19487,10 +19480,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19607,10 +19600,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19636,16 +19629,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19673,28 +19666,28 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19721,7 +19714,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19729,10 +19722,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19758,13 +19751,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19816,7 +19809,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19843,7 +19836,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19851,14 +19844,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19880,13 +19873,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19936,7 +19929,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19951,19 +19944,19 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO140" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19971,14 +19964,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20000,13 +19993,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20056,7 +20049,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20071,19 +20064,19 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20084,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20120,10 +20113,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20174,7 +20167,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20192,7 +20185,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20201,7 +20194,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20202,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20238,10 +20231,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20292,7 +20285,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20310,7 +20303,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20319,7 +20312,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20327,10 +20320,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20356,14 +20349,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20412,7 +20405,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20439,7 +20432,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20447,13 +20440,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20475,19 +20468,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20536,7 +20529,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20554,16 +20547,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20571,10 +20564,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20689,10 +20682,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20807,13 +20800,13 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20835,13 +20828,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20907,7 +20900,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20927,10 +20920,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20956,16 +20949,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20993,28 +20986,28 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21041,7 +21034,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21049,10 +21042,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21078,13 +21071,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21136,7 +21129,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21163,7 +21156,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21171,14 +21164,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21200,13 +21193,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21256,7 +21249,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21271,10 +21264,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21283,7 +21276,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21291,14 +21284,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21320,13 +21313,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21376,7 +21369,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21391,10 +21384,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21403,7 +21396,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21411,10 +21404,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21440,10 +21433,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21494,7 +21487,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21509,10 +21502,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21521,7 +21514,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21529,10 +21522,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21558,10 +21551,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21612,7 +21605,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21630,7 +21623,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21639,7 +21632,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21647,10 +21640,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21676,14 +21669,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21732,7 +21725,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21759,7 +21752,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21767,10 +21760,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21793,19 +21786,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21854,7 +21847,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21866,22 +21859,22 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO156" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21889,10 +21882,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21918,16 +21911,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21956,7 +21949,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21974,7 +21967,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21989,19 +21982,19 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="AL157" t="s" s="2">
+      <c r="AN157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22009,10 +22002,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22035,19 +22028,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>687</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>689</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22096,7 +22089,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22111,30 +22104,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>692</v>
       </c>
-      <c r="AL158" t="s" s="2">
+      <c r="AN158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO158" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="AM158" t="s" s="2">
+      <c r="AP158" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>696</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22157,19 +22150,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>702</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22218,7 +22211,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22236,7 +22229,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22245,7 +22238,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22253,10 +22246,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22291,7 +22284,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22340,7 +22333,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22375,10 +22368,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22404,14 +22397,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22440,7 +22433,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22458,7 +22451,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22476,16 +22469,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO161" t="s" s="2">
         <v>712</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>714</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22493,10 +22486,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22519,19 +22512,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>720</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22580,7 +22573,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22598,7 +22591,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22607,7 +22600,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22615,10 +22608,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22641,19 +22634,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>724</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22702,7 +22695,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22720,7 +22713,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22729,7 +22722,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22737,10 +22730,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22763,19 +22756,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22824,7 +22817,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22836,13 +22829,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22859,10 +22852,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22977,10 +22970,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23093,13 +23086,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>740</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>742</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23121,13 +23114,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>743</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23213,13 +23206,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23241,13 +23234,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>748</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>750</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23333,14 +23326,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23362,10 +23355,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23420,7 +23413,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23455,10 +23448,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23484,14 +23477,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23519,16 +23512,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB170" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>761</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>762</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23538,7 +23531,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23556,7 +23549,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23565,7 +23558,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23573,13 +23566,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23604,14 +23597,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23640,7 +23633,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23658,7 +23651,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23676,7 +23669,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23685,7 +23678,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23693,13 +23686,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23724,14 +23717,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23760,7 +23753,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23778,7 +23771,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23796,7 +23789,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23805,7 +23798,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23813,10 +23806,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23839,19 +23832,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23900,7 +23893,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23918,7 +23911,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23927,7 +23920,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23935,10 +23928,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23961,19 +23954,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L174" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="O174" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>672</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24022,7 +24015,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24034,22 +24027,22 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO174" t="s" s="2">
         <v>673</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24057,10 +24050,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24083,17 +24076,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>786</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24142,7 +24135,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24160,7 +24153,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24169,7 +24162,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24177,10 +24170,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24206,14 +24199,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24241,10 +24234,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24262,7 +24255,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24280,7 +24273,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24289,7 +24282,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24297,10 +24290,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24326,14 +24319,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24382,7 +24375,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24391,7 +24384,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24400,7 +24393,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24409,7 +24402,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24417,10 +24410,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24446,10 +24439,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24500,7 +24493,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24518,7 +24511,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24535,10 +24528,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24561,19 +24554,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24622,7 +24615,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24640,10 +24633,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24657,10 +24650,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24775,10 +24768,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24895,14 +24888,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24924,10 +24917,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24982,7 +24975,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25017,10 +25010,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25046,16 +25039,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="N183" t="s" s="2">
         <v>819</v>
       </c>
-      <c r="M183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>822</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25104,7 +25097,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25122,16 +25115,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25139,10 +25132,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25165,19 +25158,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>827</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>830</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25226,7 +25219,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25244,16 +25237,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>833</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25261,14 +25254,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25287,16 +25280,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>836</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>839</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25346,7 +25339,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25364,7 +25357,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25373,7 +25366,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25381,10 +25374,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25407,19 +25400,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>843</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>845</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>847</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25468,7 +25461,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25486,10 +25479,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25503,10 +25496,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25529,19 +25522,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>850</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>851</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>853</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25590,7 +25583,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25608,7 +25601,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25625,10 +25618,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25743,10 +25736,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25863,14 +25856,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25892,10 +25885,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25950,7 +25943,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25985,10 +25978,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26011,16 +26004,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26070,7 +26063,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26097,7 +26090,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26098,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26134,10 +26127,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26167,10 +26160,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26188,7 +26181,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26206,7 +26199,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="869">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:43:36+00:00</t>
+    <t>2025-10-16T12:41:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1775,6 +1775,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1785,6 +1788,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3079,17 +3086,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3098,28 +3105,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5762,7 +5769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13572,7 +13579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>487</v>
       </c>
@@ -16824,7 +16831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>529</v>
       </c>
@@ -18461,7 +18468,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>395</v>
+        <v>553</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18514,7 +18521,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18636,7 +18643,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18756,7 +18763,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18874,7 +18881,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18900,7 +18907,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>427</v>
+        <v>558</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -18994,10 +19001,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19020,70 +19027,70 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19101,13 +19108,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19118,10 +19125,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19144,19 +19151,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19193,7 +19200,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19203,7 +19210,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19221,16 +19228,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19238,13 +19245,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19266,19 +19273,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19327,7 +19334,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19345,16 +19352,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19362,10 +19369,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19480,10 +19487,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19600,10 +19607,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19629,16 +19636,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19666,10 +19673,10 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19687,7 +19694,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19714,7 +19721,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19722,10 +19729,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19751,13 +19758,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19809,7 +19816,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19836,7 +19843,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19844,14 +19851,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19873,13 +19880,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19929,7 +19936,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19944,10 +19951,10 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -19956,7 +19963,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19964,14 +19971,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19993,13 +20000,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20049,7 +20056,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20064,10 +20071,10 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20076,7 +20083,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20084,10 +20091,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20113,10 +20120,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20167,7 +20174,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20185,7 +20192,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20194,7 +20201,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20202,10 +20209,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20231,10 +20238,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20285,7 +20292,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20303,7 +20310,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20312,7 +20319,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20320,10 +20327,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20349,14 +20356,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20405,7 +20412,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20432,21 +20439,21 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20468,19 +20475,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20529,7 +20536,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20547,16 +20554,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20564,10 +20571,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20682,10 +20689,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20798,15 +20805,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20828,13 +20835,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20900,7 +20907,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20920,10 +20927,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20949,16 +20956,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20986,10 +20993,10 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -21007,7 +21014,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21034,7 +21041,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21042,10 +21049,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21071,13 +21078,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21129,7 +21136,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21156,7 +21163,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21164,14 +21171,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21193,13 +21200,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21249,7 +21256,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21264,10 +21271,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21276,7 +21283,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21284,14 +21291,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21313,13 +21320,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21369,7 +21376,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21384,10 +21391,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21396,7 +21403,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21404,10 +21411,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21433,10 +21440,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21487,7 +21494,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21502,10 +21509,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21514,7 +21521,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21522,10 +21529,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21551,10 +21558,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21605,7 +21612,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21623,7 +21630,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21632,7 +21639,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21640,10 +21647,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21669,14 +21676,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21725,7 +21732,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21752,7 +21759,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21760,10 +21767,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21786,19 +21793,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21847,7 +21854,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21859,13 +21866,13 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
@@ -21874,18 +21881,18 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21911,16 +21918,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21949,7 +21956,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21967,7 +21974,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21982,30 +21989,30 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22028,19 +22035,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22089,7 +22096,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22104,30 +22111,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22150,19 +22157,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22211,7 +22218,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22229,7 +22236,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22238,7 +22245,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22246,10 +22253,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22284,7 +22291,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22333,7 +22340,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22368,10 +22375,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22397,14 +22404,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22433,7 +22440,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22451,7 +22458,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22469,16 +22476,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22486,10 +22493,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22512,19 +22519,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22573,7 +22580,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22591,7 +22598,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22600,7 +22607,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22608,10 +22615,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22634,19 +22641,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22695,7 +22702,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22713,7 +22720,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22722,7 +22729,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22730,10 +22737,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22756,19 +22763,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22817,7 +22824,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22829,13 +22836,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22852,10 +22859,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22970,10 +22977,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23086,13 +23093,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23114,13 +23121,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23206,13 +23213,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23234,13 +23241,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23326,14 +23333,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23355,10 +23362,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23413,7 +23420,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23448,10 +23455,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23477,14 +23484,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23512,16 +23519,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23531,7 +23538,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23549,7 +23556,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23558,7 +23565,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23566,13 +23573,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23597,14 +23604,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23633,7 +23640,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23651,7 +23658,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23669,7 +23676,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23678,7 +23685,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23686,13 +23693,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23717,14 +23724,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23753,7 +23760,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23771,7 +23778,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23789,7 +23796,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23798,7 +23805,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23806,10 +23813,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23832,19 +23839,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23893,7 +23900,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23911,7 +23918,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23920,7 +23927,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23928,10 +23935,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23954,19 +23961,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24015,7 +24022,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24027,13 +24034,13 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>82</v>
@@ -24042,7 +24049,7 @@
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24050,10 +24057,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24076,17 +24083,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24135,7 +24142,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24153,7 +24160,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24162,7 +24169,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24170,10 +24177,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24199,14 +24206,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24234,10 +24241,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24255,7 +24262,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24273,7 +24280,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24282,7 +24289,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24290,10 +24297,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24319,14 +24326,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24375,7 +24382,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24384,7 +24391,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24393,7 +24400,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24402,7 +24409,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24410,10 +24417,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24439,10 +24446,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24493,7 +24500,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24511,7 +24518,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24528,10 +24535,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24554,19 +24561,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24615,7 +24622,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24633,10 +24640,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24650,10 +24657,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24768,10 +24775,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24888,14 +24895,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24917,10 +24924,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24975,7 +24982,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25010,10 +25017,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25039,16 +25046,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25097,7 +25104,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25115,16 +25122,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25132,10 +25139,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25158,19 +25165,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25219,7 +25226,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25237,16 +25244,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25254,14 +25261,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25280,16 +25287,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25339,7 +25346,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25357,7 +25364,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25366,7 +25373,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25374,10 +25381,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25400,19 +25407,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25461,7 +25468,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25479,10 +25486,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25496,10 +25503,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25522,19 +25529,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25583,7 +25590,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25601,7 +25608,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25618,10 +25625,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25736,10 +25743,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25856,14 +25863,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25885,10 +25892,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25943,7 +25950,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25978,10 +25985,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26004,16 +26011,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26063,7 +26070,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26090,7 +26097,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26098,10 +26105,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26127,10 +26134,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26160,28 +26167,28 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>865</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26199,7 +26206,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
@@ -26216,12 +26223,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:41:56+00:00</t>
+    <t>2025-10-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:49:22+00:00</t>
+    <t>2025-10-20T13:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:54:58+00:00</t>
+    <t>2025-10-23T09:18:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1467,7 +1467,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
+    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure.</t>
   </si>
   <si>
     <t>identifiantLocalUsagerESSMS</t>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>Patient.identifier:PI.system</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-localusager.esante.gouv.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>
@@ -12065,7 +12068,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>405</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>410</v>
@@ -12259,7 +12262,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>419</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>426</v>
@@ -12497,13 +12500,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -12528,7 +12531,7 @@
         <v>357</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>359</v>
@@ -12619,7 +12622,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>372</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>374</v>
@@ -12857,7 +12860,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>376</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13027,7 +13030,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>82</v>
@@ -13101,7 +13104,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>399</v>
@@ -13223,7 +13226,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>410</v>
@@ -13343,7 +13346,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>419</v>
@@ -13461,7 +13464,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>426</v>
@@ -13581,13 +13584,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -13612,7 +13615,7 @@
         <v>357</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>359</v>
@@ -13683,7 +13686,7 @@
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>363</v>
@@ -13703,7 +13706,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>372</v>
@@ -13821,7 +13824,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>374</v>
@@ -13941,7 +13944,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>376</v>
@@ -14063,7 +14066,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14111,7 +14114,7 @@
         <v>82</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>82</v>
@@ -14185,7 +14188,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>399</v>
@@ -14214,7 +14217,7 @@
         <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>401</v>
@@ -14307,7 +14310,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>410</v>
@@ -14427,7 +14430,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>419</v>
@@ -14545,7 +14548,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>426</v>
@@ -14665,13 +14668,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>82</v>
@@ -14696,7 +14699,7 @@
         <v>357</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>359</v>
@@ -14787,7 +14790,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>372</v>
@@ -14905,7 +14908,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>374</v>
@@ -15025,7 +15028,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>376</v>
@@ -15147,7 +15150,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15195,7 +15198,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -15269,7 +15272,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>399</v>
@@ -15298,7 +15301,7 @@
         <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>401</v>
@@ -15317,7 +15320,7 @@
         <v>82</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>405</v>
@@ -15391,7 +15394,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>410</v>
@@ -15511,7 +15514,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>419</v>
@@ -15629,7 +15632,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>426</v>
@@ -15749,13 +15752,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>82</v>
@@ -15780,7 +15783,7 @@
         <v>357</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>359</v>
@@ -15871,7 +15874,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>372</v>
@@ -15989,7 +15992,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>374</v>
@@ -16109,7 +16112,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>376</v>
@@ -16231,7 +16234,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16279,7 +16282,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>82</v>
@@ -16353,7 +16356,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>399</v>
@@ -16382,7 +16385,7 @@
         <v>133</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>401</v>
@@ -16401,7 +16404,7 @@
         <v>82</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>405</v>
@@ -16475,7 +16478,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>410</v>
@@ -16595,7 +16598,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>419</v>
@@ -16713,7 +16716,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>426</v>
@@ -16833,13 +16836,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>82</v>
@@ -16864,7 +16867,7 @@
         <v>357</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>359</v>
@@ -16935,7 +16938,7 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>363</v>
@@ -16955,7 +16958,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>372</v>
@@ -17073,7 +17076,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>374</v>
@@ -17193,7 +17196,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>376</v>
@@ -17241,7 +17244,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17315,7 +17318,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17363,7 +17366,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>82</v>
@@ -17437,7 +17440,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>399</v>
@@ -17466,7 +17469,7 @@
         <v>133</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>401</v>
@@ -17485,7 +17488,7 @@
         <v>82</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>405</v>
@@ -17559,7 +17562,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>410</v>
@@ -17679,7 +17682,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>419</v>
@@ -17797,7 +17800,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>426</v>
@@ -17917,13 +17920,13 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>82</v>
@@ -17948,7 +17951,7 @@
         <v>357</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>359</v>
@@ -18019,7 +18022,7 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>363</v>
@@ -18039,7 +18042,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>372</v>
@@ -18157,7 +18160,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>374</v>
@@ -18277,7 +18280,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>376</v>
@@ -18399,7 +18402,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18447,7 +18450,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>82</v>
@@ -18468,7 +18471,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18521,7 +18524,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18643,7 +18646,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18763,7 +18766,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18881,7 +18884,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18907,7 +18910,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19001,10 +19004,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19027,70 +19030,70 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19108,13 +19111,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19125,10 +19128,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19151,19 +19154,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19200,7 +19203,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19210,7 +19213,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19228,16 +19231,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19245,13 +19248,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19273,19 +19276,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19334,7 +19337,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19352,16 +19355,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19369,10 +19372,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19487,10 +19490,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19607,10 +19610,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19636,16 +19639,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19673,10 +19676,10 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19694,7 +19697,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19721,7 +19724,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19729,10 +19732,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19758,13 +19761,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19816,7 +19819,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19843,7 +19846,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19851,14 +19854,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19880,13 +19883,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19936,7 +19939,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19951,10 +19954,10 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -19963,7 +19966,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19971,14 +19974,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20000,13 +20003,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20056,7 +20059,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20071,10 +20074,10 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20083,7 +20086,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20094,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20120,10 +20123,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20174,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20192,7 +20195,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20201,7 +20204,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20212,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20238,10 +20241,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20292,7 +20295,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20310,7 +20313,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20319,7 +20322,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20327,10 +20330,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20356,14 +20359,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20412,7 +20415,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20439,7 +20442,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20447,13 +20450,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20475,19 +20478,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20536,7 +20539,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20554,16 +20557,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20571,10 +20574,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20689,10 +20692,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20807,13 +20810,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20835,13 +20838,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20907,7 +20910,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20927,10 +20930,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20956,16 +20959,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20993,10 +20996,10 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -21014,7 +21017,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21041,7 +21044,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21049,10 +21052,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21078,13 +21081,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21136,7 +21139,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21163,7 +21166,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21171,14 +21174,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21200,13 +21203,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21256,7 +21259,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21271,10 +21274,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21283,7 +21286,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21291,14 +21294,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21320,13 +21323,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21376,7 +21379,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21391,10 +21394,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21403,7 +21406,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21411,10 +21414,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21440,10 +21443,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21494,7 +21497,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21509,10 +21512,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21521,7 +21524,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21529,10 +21532,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21558,10 +21561,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21612,7 +21615,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21630,7 +21633,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21639,7 +21642,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21647,10 +21650,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21676,14 +21679,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21732,7 +21735,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21759,7 +21762,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21767,10 +21770,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21793,19 +21796,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21854,7 +21857,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21866,13 +21869,13 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
@@ -21881,7 +21884,7 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21889,10 +21892,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21918,16 +21921,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21956,7 +21959,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21974,7 +21977,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21989,19 +21992,19 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22009,10 +22012,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22035,19 +22038,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22096,7 +22099,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22111,30 +22114,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22157,19 +22160,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22218,7 +22221,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22236,7 +22239,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22245,7 +22248,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22253,10 +22256,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22291,7 +22294,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22340,7 +22343,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22375,10 +22378,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22404,14 +22407,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22440,7 +22443,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22458,7 +22461,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22476,16 +22479,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22493,10 +22496,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22519,19 +22522,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22580,7 +22583,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22598,7 +22601,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22607,7 +22610,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22615,10 +22618,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22641,19 +22644,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22702,7 +22705,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22720,7 +22723,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22729,7 +22732,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22737,10 +22740,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22763,19 +22766,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22824,7 +22827,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22836,13 +22839,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22859,10 +22862,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22977,10 +22980,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23093,13 +23096,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="B167" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="C167" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23121,13 +23124,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23213,13 +23216,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23241,13 +23244,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23333,14 +23336,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23362,10 +23365,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23420,7 +23423,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23455,10 +23458,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23484,14 +23487,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23519,16 +23522,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23538,7 +23541,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23556,7 +23559,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23565,7 +23568,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23573,13 +23576,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23604,14 +23607,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23640,7 +23643,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23658,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23676,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23685,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23693,13 +23696,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23724,14 +23727,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23760,7 +23763,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23778,7 +23781,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23796,7 +23799,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23805,7 +23808,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23813,10 +23816,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23839,19 +23842,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23900,7 +23903,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23918,7 +23921,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23927,7 +23930,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23935,10 +23938,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23961,19 +23964,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24022,7 +24025,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24034,13 +24037,13 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>82</v>
@@ -24049,7 +24052,7 @@
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24057,10 +24060,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24083,17 +24086,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24142,7 +24145,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24160,7 +24163,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24169,7 +24172,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24177,10 +24180,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24206,14 +24209,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24241,10 +24244,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24262,7 +24265,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24280,7 +24283,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24289,7 +24292,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24297,10 +24300,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24326,14 +24329,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24382,7 +24385,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24391,7 +24394,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24400,7 +24403,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24409,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24417,10 +24420,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24446,10 +24449,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24500,7 +24503,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24518,7 +24521,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24535,10 +24538,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24561,19 +24564,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24622,7 +24625,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24640,10 +24643,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24657,10 +24660,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24775,10 +24778,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24895,14 +24898,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24924,10 +24927,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24982,7 +24985,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25017,10 +25020,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25046,16 +25049,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25104,7 +25107,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25122,16 +25125,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25139,10 +25142,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25165,19 +25168,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25226,7 +25229,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25244,16 +25247,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25261,14 +25264,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25287,16 +25290,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25346,7 +25349,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25364,7 +25367,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25373,7 +25376,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25381,10 +25384,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25407,19 +25410,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25468,7 +25471,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25486,10 +25489,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25503,10 +25506,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25529,19 +25532,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25590,7 +25593,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25608,7 +25611,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25625,10 +25628,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25743,10 +25746,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25863,14 +25866,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25892,10 +25895,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25950,7 +25953,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25985,10 +25988,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26011,16 +26014,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26070,7 +26073,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26097,7 +26100,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26108,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26134,10 +26137,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26167,10 +26170,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26188,7 +26191,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26206,7 +26209,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:18:35+00:00</t>
+    <t>2025-10-23T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:35:50+00:00</t>
+    <t>2025-10-29T16:42:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T16:42:45+00:00</t>
+    <t>2025-11-04T09:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="868">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T09:41:06+00:00</t>
+    <t>2025-11-04T14:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1778,9 +1778,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1791,10 +1788,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3089,17 +3082,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3108,28 +3101,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5772,7 +5765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13582,7 +13575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>488</v>
       </c>
@@ -16834,7 +16827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>530</v>
       </c>
@@ -18471,7 +18464,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18524,7 +18517,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18646,7 +18639,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18766,7 +18759,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18884,7 +18877,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18910,7 +18903,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>559</v>
+        <v>427</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19004,10 +18997,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19030,26 +19023,26 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="O133" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="R133" t="s" s="2">
         <v>82</v>
       </c>
@@ -19093,7 +19086,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19111,13 +19104,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19128,10 +19121,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19154,19 +19147,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19203,7 +19196,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19213,7 +19206,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19231,16 +19224,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO134" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19248,13 +19241,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19276,19 +19269,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19337,7 +19330,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19355,16 +19348,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19372,10 +19365,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19490,10 +19483,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19610,10 +19603,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19639,16 +19632,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19676,28 +19669,28 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19724,7 +19717,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19732,10 +19725,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19761,13 +19754,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19819,7 +19812,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19846,7 +19839,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19854,14 +19847,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19883,13 +19876,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19939,7 +19932,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19954,19 +19947,19 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO140" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19974,14 +19967,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20003,13 +19996,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20059,7 +20052,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,19 +20067,19 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20094,10 +20087,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20123,10 +20116,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20177,7 +20170,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20195,7 +20188,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20204,7 +20197,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20212,10 +20205,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20241,10 +20234,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20295,7 +20288,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20313,7 +20306,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20322,7 +20315,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20330,10 +20323,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20359,14 +20352,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20415,7 +20408,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20442,21 +20435,21 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AP144" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AP144" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20478,19 +20471,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20539,7 +20532,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20557,16 +20550,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20574,10 +20567,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20692,10 +20685,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20808,15 +20801,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20838,13 +20831,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20910,7 +20903,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20930,10 +20923,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20959,16 +20952,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20996,28 +20989,28 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21044,7 +21037,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21052,10 +21045,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21081,13 +21074,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21139,7 +21132,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21166,7 +21159,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21174,14 +21167,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21203,13 +21196,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21259,7 +21252,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21274,10 +21267,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21286,7 +21279,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21294,14 +21287,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21323,13 +21316,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21379,7 +21372,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21394,10 +21387,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21406,7 +21399,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21414,10 +21407,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21443,10 +21436,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21497,7 +21490,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21512,10 +21505,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21524,7 +21517,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21532,10 +21525,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21561,10 +21554,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21615,7 +21608,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21633,7 +21626,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21642,7 +21635,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21650,10 +21643,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21679,14 +21672,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21735,7 +21728,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21762,7 +21755,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21770,10 +21763,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21796,19 +21789,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21857,7 +21850,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21869,33 +21862,33 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO156" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AK156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL156" t="s" s="2">
+      <c r="AP156" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="AM156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AP156" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="B157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21921,16 +21914,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21952,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21977,7 +21970,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21992,30 +21985,30 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="AL157" t="s" s="2">
+      <c r="AN157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="AM157" t="s" s="2">
+      <c r="AP157" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="AN157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>687</v>
-      </c>
       <c r="B158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22038,19 +22031,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22099,7 +22092,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22114,30 +22107,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="AL158" t="s" s="2">
+      <c r="AN158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO158" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AM158" t="s" s="2">
+      <c r="AP158" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22160,19 +22153,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22221,7 +22214,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22239,7 +22232,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22248,7 +22241,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22256,10 +22249,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22294,7 +22287,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22343,7 +22336,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22378,10 +22371,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22407,14 +22400,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22443,7 +22436,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22461,7 +22454,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22479,16 +22472,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO161" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22496,10 +22489,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22522,19 +22515,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22583,7 +22576,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22601,7 +22594,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22610,7 +22603,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22618,10 +22611,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22644,19 +22637,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22705,7 +22698,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22723,7 +22716,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22732,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22740,10 +22733,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22766,19 +22759,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22827,7 +22820,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22839,13 +22832,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22862,10 +22855,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22980,10 +22973,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23096,13 +23089,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23124,13 +23117,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23216,13 +23209,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23244,13 +23237,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23336,14 +23329,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23365,10 +23358,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23423,7 +23416,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23458,10 +23451,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23487,14 +23480,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23522,16 +23515,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB170" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23541,7 +23534,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23559,7 +23552,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23568,7 +23561,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23576,13 +23569,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23607,14 +23600,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23643,7 +23636,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23661,7 +23654,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23679,7 +23672,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23688,7 +23681,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23696,13 +23689,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23727,14 +23720,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23763,7 +23756,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23781,7 +23774,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23799,7 +23792,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23808,7 +23801,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23816,10 +23809,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23842,19 +23835,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23903,7 +23896,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23921,7 +23914,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23930,7 +23923,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23938,10 +23931,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23964,19 +23957,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L174" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="O174" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24025,7 +24018,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24037,22 +24030,22 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO174" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24060,10 +24053,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24086,17 +24079,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24145,7 +24138,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24163,7 +24156,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24172,7 +24165,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24180,10 +24173,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24209,14 +24202,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24244,10 +24237,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24265,7 +24258,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24283,7 +24276,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24292,7 +24285,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24300,10 +24293,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24329,14 +24322,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24385,7 +24378,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24394,7 +24387,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24403,7 +24396,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24412,7 +24405,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24420,10 +24413,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24449,10 +24442,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24503,7 +24496,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24521,7 +24514,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24538,10 +24531,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24564,19 +24557,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24625,7 +24618,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24643,10 +24636,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24660,10 +24653,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24778,10 +24771,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24898,14 +24891,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24927,10 +24920,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24985,7 +24978,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25020,10 +25013,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,16 +25042,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N183" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25107,7 +25100,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25125,16 +25118,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25142,10 +25135,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25168,19 +25161,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25229,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25247,16 +25240,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25264,14 +25257,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25290,16 +25283,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25349,7 +25342,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25367,7 +25360,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25376,7 +25369,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25384,10 +25377,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25410,19 +25403,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25471,7 +25464,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25489,10 +25482,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25506,10 +25499,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25532,19 +25525,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25593,7 +25586,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25611,7 +25604,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25628,10 +25621,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25746,10 +25739,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25866,14 +25859,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25895,10 +25888,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25953,7 +25946,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25988,10 +25981,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26014,16 +26007,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26073,7 +26066,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26100,7 +26093,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26108,10 +26101,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26137,10 +26130,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26170,10 +26163,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26191,7 +26184,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26209,7 +26202,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
@@ -26226,12 +26219,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:52:21+00:00</t>
+    <t>2025-12-08T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1778,6 +1778,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1788,6 +1791,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3082,17 +3089,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3101,28 +3108,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5765,7 +5772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13575,7 +13582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>488</v>
       </c>
@@ -16827,7 +16834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>530</v>
       </c>
@@ -18464,7 +18471,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>395</v>
+        <v>554</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18517,7 +18524,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18639,7 +18646,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18759,7 +18766,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18877,7 +18884,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18903,7 +18910,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -18997,10 +19004,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19023,70 +19030,70 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19104,13 +19111,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19121,10 +19128,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19147,19 +19154,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19196,7 +19203,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19206,7 +19213,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19224,16 +19231,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19241,13 +19248,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19269,19 +19276,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19330,7 +19337,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19348,16 +19355,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19365,10 +19372,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19483,10 +19490,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19603,10 +19610,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19632,16 +19639,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19669,10 +19676,10 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19690,7 +19697,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19717,7 +19724,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19725,10 +19732,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19754,13 +19761,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19812,7 +19819,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19839,7 +19846,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19847,14 +19854,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19876,13 +19883,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19932,7 +19939,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19947,10 +19954,10 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -19959,7 +19966,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19967,14 +19974,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19996,13 +20003,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20052,7 +20059,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20067,10 +20074,10 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20079,7 +20086,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20087,10 +20094,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20116,10 +20123,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20170,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20188,7 +20195,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20197,7 +20204,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20205,10 +20212,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20234,10 +20241,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20288,7 +20295,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20306,7 +20313,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20315,7 +20322,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20323,10 +20330,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20352,14 +20359,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20408,7 +20415,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20435,21 +20442,21 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20471,19 +20478,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20532,7 +20539,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20550,16 +20557,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20567,10 +20574,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20685,10 +20692,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20801,15 +20808,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20831,13 +20838,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20903,7 +20910,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20923,10 +20930,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20952,16 +20959,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20989,10 +20996,10 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -21010,7 +21017,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21037,7 +21044,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21045,10 +21052,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21074,13 +21081,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21132,7 +21139,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21159,7 +21166,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21167,14 +21174,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21196,13 +21203,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21252,7 +21259,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21267,10 +21274,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21279,7 +21286,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21287,14 +21294,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21316,13 +21323,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21372,7 +21379,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21387,10 +21394,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21399,7 +21406,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21407,10 +21414,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21436,10 +21443,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21490,7 +21497,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21505,10 +21512,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21517,7 +21524,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21525,10 +21532,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21554,10 +21561,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21608,7 +21615,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21626,7 +21633,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21635,7 +21642,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21643,10 +21650,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21672,14 +21679,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21728,7 +21735,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21755,7 +21762,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21763,10 +21770,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21789,19 +21796,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21850,7 +21857,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21862,13 +21869,13 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
@@ -21877,18 +21884,18 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21914,16 +21921,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21952,7 +21959,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21970,7 +21977,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21985,30 +21992,30 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22031,19 +22038,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22092,7 +22099,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22107,30 +22114,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22153,19 +22160,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22214,7 +22221,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22232,7 +22239,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22241,7 +22248,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22249,10 +22256,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22287,7 +22294,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22336,7 +22343,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22371,10 +22378,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22400,14 +22407,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22436,7 +22443,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22454,7 +22461,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22472,16 +22479,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22489,10 +22496,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22515,19 +22522,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22576,7 +22583,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22594,7 +22601,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22603,7 +22610,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22611,10 +22618,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22637,19 +22644,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22705,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22716,7 +22723,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22725,7 +22732,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22733,10 +22740,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22759,19 +22766,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22820,7 +22827,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22832,13 +22839,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22855,10 +22862,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22973,10 +22980,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23089,13 +23096,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23117,13 +23124,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23209,13 +23216,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23237,13 +23244,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23329,14 +23336,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23358,10 +23365,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23416,7 +23423,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23451,10 +23458,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23480,14 +23487,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23515,16 +23522,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23534,7 +23541,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23552,7 +23559,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23561,7 +23568,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23569,13 +23576,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23600,14 +23607,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23636,7 +23643,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23654,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23672,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23681,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23689,13 +23696,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23720,14 +23727,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23756,7 +23763,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23774,7 +23781,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23792,7 +23799,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23801,7 +23808,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23809,10 +23816,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23835,19 +23842,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23896,7 +23903,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23914,7 +23921,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23923,7 +23930,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23931,10 +23938,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23957,19 +23964,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24018,7 +24025,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24030,13 +24037,13 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>82</v>
@@ -24045,7 +24052,7 @@
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24053,10 +24060,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24079,17 +24086,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24138,7 +24145,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24156,7 +24163,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24165,7 +24172,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24173,10 +24180,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24202,14 +24209,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24237,10 +24244,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24258,7 +24265,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24276,7 +24283,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24285,7 +24292,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24293,10 +24300,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24322,14 +24329,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24378,7 +24385,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24387,7 +24394,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24396,7 +24403,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24405,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24413,10 +24420,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24442,10 +24449,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24496,7 +24503,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24514,7 +24521,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24531,10 +24538,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24557,19 +24564,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24618,7 +24625,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24636,10 +24643,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24653,10 +24660,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24771,10 +24778,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24891,14 +24898,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24920,10 +24927,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24978,7 +24985,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25013,10 +25020,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25042,16 +25049,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25100,7 +25107,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25118,16 +25125,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25135,10 +25142,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25161,19 +25168,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25222,7 +25229,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25240,16 +25247,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25257,14 +25264,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25283,16 +25290,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25342,7 +25349,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25360,7 +25367,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25369,7 +25376,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25377,10 +25384,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25403,19 +25410,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25464,7 +25471,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25482,10 +25489,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25499,10 +25506,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25525,19 +25532,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25586,7 +25593,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25604,7 +25611,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25621,10 +25628,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25739,10 +25746,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25859,14 +25866,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25888,10 +25895,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25946,7 +25953,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25981,10 +25988,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26007,16 +26014,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26066,7 +26073,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26093,7 +26100,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26101,10 +26108,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26130,10 +26137,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26163,28 +26170,28 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26202,7 +26209,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
@@ -26219,12 +26226,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="868">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T13:48:42+00:00</t>
+    <t>2025-12-08T14:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1778,9 +1778,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1791,10 +1788,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3089,17 +3082,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3108,28 +3101,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5772,7 +5765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13582,7 +13575,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
         <v>488</v>
       </c>
@@ -16834,7 +16827,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
         <v>530</v>
       </c>
@@ -18471,7 +18464,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18524,7 +18517,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18646,7 +18639,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18766,7 +18759,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18884,7 +18877,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18910,7 +18903,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>559</v>
+        <v>427</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19004,10 +18997,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19030,26 +19023,26 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="O133" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="R133" t="s" s="2">
         <v>82</v>
       </c>
@@ -19093,7 +19086,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19111,13 +19104,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19128,10 +19121,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19154,19 +19147,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19203,7 +19196,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19213,7 +19206,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19231,16 +19224,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO134" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19248,13 +19241,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19276,19 +19269,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19337,7 +19330,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19355,16 +19348,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19372,10 +19365,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19490,10 +19483,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19610,10 +19603,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19639,16 +19632,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19676,28 +19669,28 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19724,7 +19717,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19732,10 +19725,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19761,13 +19754,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19819,7 +19812,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19846,7 +19839,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19854,14 +19847,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19883,13 +19876,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19939,7 +19932,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19954,19 +19947,19 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO140" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19974,14 +19967,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20003,13 +19996,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20059,7 +20052,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,19 +20067,19 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20094,10 +20087,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20123,10 +20116,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20177,7 +20170,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20195,7 +20188,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20204,7 +20197,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20212,10 +20205,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20241,10 +20234,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20295,7 +20288,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20313,7 +20306,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20322,7 +20315,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20330,10 +20323,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20359,14 +20352,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20415,7 +20408,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20442,21 +20435,21 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AP144" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="AP144" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20478,19 +20471,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20539,7 +20532,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20557,16 +20550,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20574,10 +20567,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20692,10 +20685,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20808,15 +20801,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20838,13 +20831,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20910,7 +20903,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20930,10 +20923,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20959,16 +20952,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20996,28 +20989,28 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21044,7 +21037,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21052,10 +21045,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21081,13 +21074,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21139,7 +21132,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21166,7 +21159,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21174,14 +21167,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21203,13 +21196,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21259,7 +21252,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21274,10 +21267,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21286,7 +21279,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21294,14 +21287,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21323,13 +21316,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21379,7 +21372,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21394,10 +21387,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21406,7 +21399,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21414,10 +21407,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21443,10 +21436,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21497,7 +21490,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21512,10 +21505,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21524,7 +21517,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21532,10 +21525,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21561,10 +21554,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21615,7 +21608,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21633,7 +21626,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21642,7 +21635,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21650,10 +21643,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21679,14 +21672,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21735,7 +21728,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21762,7 +21755,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21770,10 +21763,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21796,19 +21789,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21857,7 +21850,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21869,33 +21862,33 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO156" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="AK156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL156" t="s" s="2">
+      <c r="AP156" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="157" hidden="true">
+      <c r="A157" t="s" s="2">
         <v>675</v>
       </c>
-      <c r="AM156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AP156" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="B157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21921,16 +21914,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21952,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21977,7 +21970,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21992,30 +21985,30 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="AL157" t="s" s="2">
+      <c r="AN157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="AM157" t="s" s="2">
+      <c r="AP157" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="158" hidden="true">
+      <c r="A158" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="AN157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AP157" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s" s="2">
-        <v>687</v>
-      </c>
       <c r="B158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22038,19 +22031,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22099,7 +22092,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22114,30 +22107,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="AL158" t="s" s="2">
+      <c r="AN158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO158" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AM158" t="s" s="2">
+      <c r="AP158" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22160,19 +22153,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22221,7 +22214,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22239,7 +22232,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22248,7 +22241,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22256,10 +22249,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22294,7 +22287,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22343,7 +22336,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22378,10 +22371,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22407,14 +22400,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22443,7 +22436,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22461,7 +22454,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22479,16 +22472,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO161" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22496,10 +22489,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22522,19 +22515,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22583,7 +22576,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22601,7 +22594,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22610,7 +22603,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22618,10 +22611,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22644,19 +22637,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22705,7 +22698,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22723,7 +22716,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22732,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22740,10 +22733,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22766,19 +22759,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22827,7 +22820,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22839,13 +22832,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22862,10 +22855,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22980,10 +22973,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23096,13 +23089,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23124,13 +23117,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23216,13 +23209,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23244,13 +23237,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23336,14 +23329,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23365,10 +23358,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23423,7 +23416,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23458,10 +23451,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23487,14 +23480,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23522,16 +23515,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB170" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23541,7 +23534,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23559,7 +23552,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23568,7 +23561,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23576,13 +23569,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23607,14 +23600,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23643,7 +23636,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23661,7 +23654,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23679,7 +23672,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23688,7 +23681,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23696,13 +23689,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23727,14 +23720,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23763,7 +23756,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23781,7 +23774,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23799,7 +23792,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23808,7 +23801,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23816,10 +23809,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23842,19 +23835,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23903,7 +23896,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23921,7 +23914,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23930,7 +23923,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23938,10 +23931,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23964,19 +23957,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L174" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="O174" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24025,7 +24018,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24037,22 +24030,22 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO174" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24060,10 +24053,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24086,17 +24079,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24145,7 +24138,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24163,7 +24156,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24172,7 +24165,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24180,10 +24173,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24209,14 +24202,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24244,10 +24237,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24265,7 +24258,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24283,7 +24276,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24292,7 +24285,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24300,10 +24293,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24329,14 +24322,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24385,7 +24378,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24394,7 +24387,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24403,7 +24396,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24412,7 +24405,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24420,10 +24413,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24449,10 +24442,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24503,7 +24496,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24521,7 +24514,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24538,10 +24531,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24564,19 +24557,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24625,7 +24618,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24643,10 +24636,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24660,10 +24653,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24778,10 +24771,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24898,14 +24891,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24927,10 +24920,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24985,7 +24978,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25020,10 +25013,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,16 +25042,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N183" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25107,7 +25100,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25125,16 +25118,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25142,10 +25135,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25168,19 +25161,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25229,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25247,16 +25240,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25264,14 +25257,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25290,16 +25283,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25349,7 +25342,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25367,7 +25360,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25376,7 +25369,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25384,10 +25377,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25410,19 +25403,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25471,7 +25464,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25489,10 +25482,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25506,10 +25499,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25532,19 +25525,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25593,7 +25586,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25611,7 +25604,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25628,10 +25621,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25746,10 +25739,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25866,14 +25859,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25895,10 +25888,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25953,7 +25946,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25988,10 +25981,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26014,16 +26007,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26073,7 +26066,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26100,7 +26093,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26108,10 +26101,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26137,10 +26130,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26170,10 +26163,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26191,7 +26184,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26209,7 +26202,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
@@ -26226,12 +26219,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:21:35+00:00</t>
+    <t>2025-12-17T08:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1778,6 +1778,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1788,6 +1791,10 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -3082,17 +3089,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="144.640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3101,28 +3108,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="75.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="35.546875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="156.828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="40.8125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.4765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="134.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="34.98828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="34.35546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5765,7 +5772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13575,7 +13582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>488</v>
       </c>
@@ -16827,7 +16834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>530</v>
       </c>
@@ -18464,7 +18471,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>395</v>
+        <v>554</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18517,7 +18524,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18639,7 +18646,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18759,7 +18766,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18877,7 +18884,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18903,7 +18910,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>427</v>
+        <v>559</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -18997,10 +19004,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19023,70 +19030,70 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19104,13 +19111,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19121,10 +19128,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19147,19 +19154,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19196,7 +19203,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19206,7 +19213,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19224,16 +19231,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19241,13 +19248,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19269,19 +19276,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19330,7 +19337,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19348,16 +19355,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19365,10 +19372,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19483,10 +19490,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19603,10 +19610,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19632,16 +19639,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19669,10 +19676,10 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19690,7 +19697,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19717,7 +19724,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19725,10 +19732,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19754,13 +19761,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19812,7 +19819,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19839,7 +19846,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19847,14 +19854,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19876,13 +19883,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19932,7 +19939,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19947,10 +19954,10 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -19959,7 +19966,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19967,14 +19974,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -19996,13 +20003,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20052,7 +20059,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20067,10 +20074,10 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20079,7 +20086,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20087,10 +20094,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20116,10 +20123,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20170,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20188,7 +20195,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20197,7 +20204,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20205,10 +20212,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20234,10 +20241,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20288,7 +20295,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20306,7 +20313,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20315,7 +20322,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20323,10 +20330,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20352,14 +20359,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20408,7 +20415,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20435,21 +20442,21 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20471,19 +20478,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20532,7 +20539,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20550,16 +20557,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20567,10 +20574,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20685,10 +20692,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20801,15 +20808,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20831,13 +20838,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20903,7 +20910,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20923,10 +20930,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20952,16 +20959,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20989,10 +20996,10 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -21010,7 +21017,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21037,7 +21044,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21045,10 +21052,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21074,13 +21081,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21132,7 +21139,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21159,7 +21166,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21167,14 +21174,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21196,13 +21203,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21252,7 +21259,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21267,10 +21274,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21279,7 +21286,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21287,14 +21294,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21316,13 +21323,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21372,7 +21379,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21387,10 +21394,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21399,7 +21406,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21407,10 +21414,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21436,10 +21443,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21490,7 +21497,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21505,10 +21512,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21517,7 +21524,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21525,10 +21532,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21554,10 +21561,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21608,7 +21615,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21626,7 +21633,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21635,7 +21642,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21643,10 +21650,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21672,14 +21679,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21728,7 +21735,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21755,7 +21762,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21763,10 +21770,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21789,19 +21796,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21850,7 +21857,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21862,13 +21869,13 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
@@ -21877,18 +21884,18 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21914,16 +21921,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21952,7 +21959,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21970,7 +21977,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21985,30 +21992,30 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22031,19 +22038,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22092,7 +22099,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22107,30 +22114,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22153,19 +22160,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22214,7 +22221,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22232,7 +22239,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22241,7 +22248,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22249,10 +22256,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22287,7 +22294,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22336,7 +22343,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22371,10 +22378,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22400,14 +22407,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22436,7 +22443,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22454,7 +22461,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22472,16 +22479,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22489,10 +22496,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22515,19 +22522,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22576,7 +22583,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22594,7 +22601,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22603,7 +22610,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22611,10 +22618,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22637,19 +22644,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22705,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22716,7 +22723,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22725,7 +22732,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22733,10 +22740,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22759,19 +22766,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22820,7 +22827,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22832,13 +22839,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22855,10 +22862,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22973,10 +22980,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23089,13 +23096,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23117,13 +23124,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23209,13 +23216,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23237,13 +23244,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23329,14 +23336,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23358,10 +23365,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23416,7 +23423,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23451,10 +23458,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23480,14 +23487,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23515,16 +23522,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23534,7 +23541,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23552,7 +23559,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23561,7 +23568,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23569,13 +23576,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23600,14 +23607,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23636,7 +23643,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23654,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23672,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23681,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23689,13 +23696,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23720,14 +23727,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23756,7 +23763,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23774,7 +23781,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23792,7 +23799,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23801,7 +23808,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23809,10 +23816,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23835,19 +23842,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23896,7 +23903,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23914,7 +23921,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23923,7 +23930,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23931,10 +23938,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23957,19 +23964,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24018,7 +24025,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24030,13 +24037,13 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>82</v>
@@ -24045,7 +24052,7 @@
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24053,10 +24060,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24079,17 +24086,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24138,7 +24145,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24156,7 +24163,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24165,7 +24172,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24173,10 +24180,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24202,14 +24209,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24237,10 +24244,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24258,7 +24265,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24276,7 +24283,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24285,7 +24292,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24293,10 +24300,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24322,14 +24329,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24378,7 +24385,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24387,7 +24394,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24396,7 +24403,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24405,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24413,10 +24420,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24442,10 +24449,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24496,7 +24503,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24514,7 +24521,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24531,10 +24538,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24557,19 +24564,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24618,7 +24625,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24636,10 +24643,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24653,10 +24660,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24771,10 +24778,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24891,14 +24898,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24920,10 +24927,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24978,7 +24985,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25013,10 +25020,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25042,16 +25049,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25100,7 +25107,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25118,16 +25125,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25135,10 +25142,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25161,19 +25168,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25222,7 +25229,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25240,16 +25247,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25257,14 +25264,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25283,16 +25290,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25342,7 +25349,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25360,7 +25367,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25369,7 +25376,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25377,10 +25384,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25403,19 +25410,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25464,7 +25471,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25482,10 +25489,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25499,10 +25506,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25525,19 +25532,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25586,7 +25593,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25604,7 +25611,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25621,10 +25628,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25739,10 +25746,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25859,14 +25866,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25888,10 +25895,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25946,7 +25953,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25981,10 +25988,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26007,16 +26014,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26066,7 +26073,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26093,7 +26100,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26101,10 +26108,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26130,10 +26137,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26163,28 +26170,28 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="Z192" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="AA192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF192" t="s" s="2">
         <v>865</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26202,7 +26209,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
@@ -26219,12 +26226,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-17T08:43:13+00:00</t>
+    <t>2025-12-17T14:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:03:49+00:00</t>
+    <t>2025-12-18T17:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:22:25+00:00</t>
+    <t>2025-12-18T17:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="869">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T17:25:31+00:00</t>
+    <t>2025-12-19T08:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -503,7 +503,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -527,7 +527,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -570,7 +570,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -649,7 +649,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1353,7 +1353,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1369,10 +1369,6 @@
   </si>
   <si>
     <t>Patient.identifier:NSS.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Patient.identifier:INS-C</t>
@@ -1785,9 +1781,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1834,7 +1827,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2087,7 +2080,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2136,7 +2129,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -2177,7 +2170,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2269,7 +2262,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2372,7 +2365,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2388,7 +2381,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2430,7 +2423,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2452,7 +2445,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2464,13 +2457,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2660,7 +2653,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2684,7 +2677,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2735,7 +2728,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -3102,7 +3095,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3117,7 +3110,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -10117,7 +10110,7 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>412</v>
@@ -10211,13 +10204,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -10242,7 +10235,7 @@
         <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>359</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>367</v>
@@ -10451,7 +10444,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>368</v>
@@ -10571,7 +10564,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>369</v>
@@ -10619,7 +10612,7 @@
         <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>82</v>
@@ -10693,7 +10686,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>378</v>
@@ -10725,7 +10718,7 @@
         <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>382</v>
@@ -10741,7 +10734,7 @@
         <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>82</v>
@@ -10815,7 +10808,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>387</v>
@@ -10863,7 +10856,7 @@
         <v>82</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>392</v>
@@ -10937,7 +10930,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>396</v>
@@ -11057,7 +11050,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>404</v>
@@ -11175,7 +11168,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>410</v>
@@ -11201,7 +11194,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>412</v>
@@ -11295,13 +11288,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -11326,7 +11319,7 @@
         <v>357</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>359</v>
@@ -11417,7 +11410,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>367</v>
@@ -11535,7 +11528,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>368</v>
@@ -11655,7 +11648,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>369</v>
@@ -11703,7 +11696,7 @@
         <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>82</v>
@@ -11777,7 +11770,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>378</v>
@@ -11825,7 +11818,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11899,7 +11892,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>387</v>
@@ -11947,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>392</v>
@@ -12021,7 +12014,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>396</v>
@@ -12141,7 +12134,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>404</v>
@@ -12259,7 +12252,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>410</v>
@@ -12285,7 +12278,7 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>412</v>
@@ -12379,13 +12372,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -12410,7 +12403,7 @@
         <v>357</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>359</v>
@@ -12481,7 +12474,7 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>363</v>
@@ -12501,7 +12494,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>367</v>
@@ -12619,7 +12612,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>368</v>
@@ -12739,7 +12732,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>369</v>
@@ -12787,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>82</v>
@@ -12861,7 +12854,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>378</v>
@@ -12909,7 +12902,7 @@
         <v>82</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>82</v>
@@ -12983,7 +12976,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13031,7 +13024,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>392</v>
@@ -13105,7 +13098,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>396</v>
@@ -13225,7 +13218,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>404</v>
@@ -13343,7 +13336,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>410</v>
@@ -13369,7 +13362,7 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>412</v>
@@ -13463,13 +13456,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>82</v>
@@ -13494,7 +13487,7 @@
         <v>357</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>359</v>
@@ -13585,7 +13578,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>367</v>
@@ -13703,7 +13696,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>368</v>
@@ -13823,7 +13816,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>369</v>
@@ -13871,7 +13864,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13945,7 +13938,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>378</v>
@@ -13993,7 +13986,7 @@
         <v>82</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>82</v>
@@ -14067,7 +14060,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14189,7 +14182,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>396</v>
@@ -14309,7 +14302,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>404</v>
@@ -14427,7 +14420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>410</v>
@@ -14453,7 +14446,7 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>412</v>
@@ -14547,13 +14540,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
@@ -14578,7 +14571,7 @@
         <v>357</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>359</v>
@@ -14649,7 +14642,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>363</v>
@@ -14669,7 +14662,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>367</v>
@@ -14787,7 +14780,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>368</v>
@@ -14907,7 +14900,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>369</v>
@@ -15029,7 +15022,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>378</v>
@@ -15077,7 +15070,7 @@
         <v>82</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>82</v>
@@ -15151,7 +15144,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15180,7 +15173,7 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>389</v>
@@ -15273,7 +15266,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>396</v>
@@ -15393,7 +15386,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>404</v>
@@ -15511,7 +15504,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>410</v>
@@ -15537,7 +15530,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>412</v>
@@ -15631,13 +15624,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>82</v>
@@ -15662,7 +15655,7 @@
         <v>357</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>359</v>
@@ -15753,7 +15746,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>367</v>
@@ -15871,7 +15864,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>368</v>
@@ -15991,7 +15984,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>369</v>
@@ -16113,7 +16106,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>378</v>
@@ -16161,7 +16154,7 @@
         <v>82</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>82</v>
@@ -16235,7 +16228,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16264,7 +16257,7 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>389</v>
@@ -16283,7 +16276,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>392</v>
@@ -16357,7 +16350,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>396</v>
@@ -16477,7 +16470,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>404</v>
@@ -16595,7 +16588,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>410</v>
@@ -16621,7 +16614,7 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>412</v>
@@ -16715,13 +16708,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -16746,7 +16739,7 @@
         <v>357</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>359</v>
@@ -16837,7 +16830,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>367</v>
@@ -16955,7 +16948,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>368</v>
@@ -17075,7 +17068,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>369</v>
@@ -17197,7 +17190,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>378</v>
@@ -17245,7 +17238,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17319,7 +17312,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17348,7 +17341,7 @@
         <v>133</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>389</v>
@@ -17367,7 +17360,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>392</v>
@@ -17441,7 +17434,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>396</v>
@@ -17561,7 +17554,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>404</v>
@@ -17679,7 +17672,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>410</v>
@@ -17705,7 +17698,7 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>412</v>
@@ -17799,13 +17792,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>82</v>
@@ -17830,7 +17823,7 @@
         <v>357</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>359</v>
@@ -17901,7 +17894,7 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>363</v>
@@ -17921,7 +17914,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>367</v>
@@ -18039,7 +18032,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>368</v>
@@ -18159,7 +18152,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>369</v>
@@ -18207,7 +18200,7 @@
         <v>82</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18274,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>378</v>
@@ -18329,7 +18322,7 @@
         <v>82</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>82</v>
@@ -18403,7 +18396,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18432,7 +18425,7 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>389</v>
@@ -18451,7 +18444,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>392</v>
@@ -18525,7 +18518,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>396</v>
@@ -18645,7 +18638,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>404</v>
@@ -18763,7 +18756,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>410</v>
@@ -18789,7 +18782,7 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>412</v>
@@ -18883,13 +18876,13 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>82</v>
@@ -18914,7 +18907,7 @@
         <v>357</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>359</v>
@@ -18985,7 +18978,7 @@
         <v>103</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>363</v>
@@ -19005,7 +18998,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>367</v>
@@ -19123,7 +19116,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>368</v>
@@ -19243,7 +19236,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>369</v>
@@ -19291,7 +19284,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -19365,7 +19358,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>378</v>
@@ -19413,7 +19406,7 @@
         <v>82</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>82</v>
@@ -19434,7 +19427,7 @@
         <v>428</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -19487,7 +19480,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>387</v>
@@ -19609,7 +19602,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>396</v>
@@ -19729,7 +19722,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>404</v>
@@ -19847,7 +19840,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>410</v>
@@ -19967,10 +19960,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19993,26 +19986,26 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="P141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q141" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="O141" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="R141" t="s" s="2">
         <v>82</v>
       </c>
@@ -20056,7 +20049,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,13 +20067,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20084,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20117,19 +20110,19 @@
         <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -20166,7 +20159,7 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
@@ -20176,7 +20169,7 @@
         <v>118</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20194,16 +20187,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20211,13 +20204,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20239,19 +20232,19 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20300,7 +20293,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20318,16 +20311,16 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20335,10 +20328,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20453,10 +20446,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20573,10 +20566,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20602,16 +20595,16 @@
         <v>172</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20621,7 +20614,7 @@
         <v>82</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>82</v>
@@ -20639,28 +20632,28 @@
         <v>263</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20687,7 +20680,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20695,10 +20688,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20724,13 +20717,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>284</v>
@@ -20782,7 +20775,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20809,7 +20802,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20817,14 +20810,14 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -20846,13 +20839,13 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20902,7 +20895,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20917,19 +20910,19 @@
         <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO148" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20937,14 +20930,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20966,13 +20959,13 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -21022,7 +21015,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21037,19 +21030,19 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO149" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21057,10 +21050,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21086,10 +21079,10 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21140,7 +21133,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21158,7 +21151,7 @@
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -21167,7 +21160,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21175,10 +21168,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21204,10 +21197,10 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21258,7 +21251,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21276,7 +21269,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21285,7 +21278,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21293,10 +21286,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21322,14 +21315,14 @@
         <v>343</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21378,7 +21371,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21405,7 +21398,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21413,13 +21406,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>82</v>
@@ -21441,19 +21434,19 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21502,7 +21495,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21520,16 +21513,16 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO153" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO153" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21537,10 +21530,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21655,10 +21648,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21773,13 +21766,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>82</v>
@@ -21801,13 +21794,13 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21873,7 +21866,7 @@
         <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>82</v>
@@ -21893,10 +21886,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21922,16 +21915,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,28 +21952,28 @@
         <v>263</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF157" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22007,7 +22000,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22015,10 +22008,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22044,13 +22037,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>284</v>
@@ -22102,7 +22095,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22129,7 +22122,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22137,14 +22130,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22166,13 +22159,13 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22222,7 +22215,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22237,10 +22230,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22249,7 +22242,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22257,14 +22250,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22286,13 +22279,13 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22342,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22357,10 +22350,10 @@
         <v>103</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22369,7 +22362,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22377,10 +22370,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22406,10 +22399,10 @@
         <v>105</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22460,7 +22453,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22475,10 +22468,10 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
@@ -22487,7 +22480,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22495,10 +22488,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22524,10 +22517,10 @@
         <v>105</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22578,7 +22571,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22596,7 +22589,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22605,7 +22598,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22613,10 +22606,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22642,14 +22635,14 @@
         <v>343</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22691,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22725,7 +22718,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22733,10 +22726,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22759,19 +22752,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22820,7 +22813,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22832,22 +22825,22 @@
         <v>206</v>
       </c>
       <c r="AJ164" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO164" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO164" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>82</v>
@@ -22855,10 +22848,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22884,16 +22877,16 @@
         <v>172</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22922,7 +22915,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22940,7 +22933,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22955,19 +22948,19 @@
         <v>103</v>
       </c>
       <c r="AK165" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AM165" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="AL165" t="s" s="2">
+      <c r="AN165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO165" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -22975,10 +22968,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23001,19 +22994,19 @@
         <v>92</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23062,7 +23055,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23077,30 +23070,30 @@
         <v>103</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM166" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AL166" t="s" s="2">
+      <c r="AN166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO166" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="AM166" t="s" s="2">
+      <c r="AP166" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AP166" t="s" s="2">
-        <v>698</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23123,19 +23116,19 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23184,7 +23177,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23202,7 +23195,7 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>109</v>
@@ -23211,7 +23204,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23219,10 +23212,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23257,7 +23250,7 @@
         <v>242</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23306,7 +23299,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23341,10 +23334,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23370,14 +23363,14 @@
         <v>379</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23406,7 +23399,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -23424,7 +23417,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23442,16 +23435,16 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO169" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23459,10 +23452,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23485,19 +23478,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23546,7 +23539,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23564,7 +23557,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23573,7 +23566,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23581,10 +23574,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23607,19 +23600,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23668,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23686,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23695,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23703,10 +23696,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23729,19 +23722,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23790,7 +23783,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23802,13 +23795,13 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23825,10 +23818,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23943,10 +23936,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24059,13 +24052,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -24087,13 +24080,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24179,13 +24172,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>82</v>
@@ -24207,13 +24200,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24299,14 +24292,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -24328,10 +24321,10 @@
         <v>112</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>115</v>
@@ -24386,7 +24379,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24421,10 +24414,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24450,14 +24443,14 @@
         <v>379</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24485,16 +24478,16 @@
         <v>154</v>
       </c>
       <c r="Y178" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AC178" s="2"/>
       <c r="AD178" t="s" s="2">
@@ -24504,7 +24497,7 @@
         <v>118</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24522,7 +24515,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24531,7 +24524,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24539,13 +24532,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24570,14 +24563,14 @@
         <v>379</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24606,7 +24599,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24624,7 +24617,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24642,7 +24635,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>109</v>
@@ -24651,7 +24644,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24659,13 +24652,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>82</v>
@@ -24690,14 +24683,14 @@
         <v>379</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24726,7 +24719,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -24744,7 +24737,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24762,7 +24755,7 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>109</v>
@@ -24771,7 +24764,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24779,10 +24772,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24805,19 +24798,19 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="O181" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24866,7 +24859,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24884,7 +24877,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>82</v>
@@ -24893,7 +24886,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24901,10 +24894,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24927,19 +24920,19 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L182" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O182" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24988,7 +24981,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25000,22 +24993,22 @@
         <v>206</v>
       </c>
       <c r="AJ182" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25023,10 +25016,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,17 +25042,17 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25108,7 +25101,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25126,7 +25119,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25135,7 +25128,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25143,10 +25136,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25172,14 +25165,14 @@
         <v>172</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25207,10 +25200,10 @@
         <v>263</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -25228,7 +25221,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25246,7 +25239,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25255,7 +25248,7 @@
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25263,10 +25256,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25289,17 +25282,17 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25348,7 +25341,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25357,7 +25350,7 @@
         <v>91</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>103</v>
@@ -25366,7 +25359,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25375,7 +25368,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25383,10 +25376,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25412,10 +25405,10 @@
         <v>343</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25466,7 +25459,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25484,7 +25477,7 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>109</v>
@@ -25501,10 +25494,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25527,19 +25520,19 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25588,7 +25581,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25606,10 +25599,10 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>82</v>
@@ -25623,10 +25616,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25741,10 +25734,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25861,14 +25854,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25890,10 +25883,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25948,7 +25941,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25983,10 +25976,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26012,16 +26005,16 @@
         <v>379</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26070,7 +26063,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26088,16 +26081,16 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26098,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26131,19 +26124,19 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26192,7 +26185,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26210,16 +26203,16 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO192" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>82</v>
@@ -26227,14 +26220,14 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26253,16 +26246,16 @@
         <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26312,7 +26305,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26330,7 +26323,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26339,7 +26332,7 @@
         <v>82</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>82</v>
@@ -26347,10 +26340,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26373,19 +26366,19 @@
         <v>92</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>846</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26434,7 +26427,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26452,10 +26445,10 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -26469,10 +26462,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26495,19 +26488,19 @@
         <v>92</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26556,7 +26549,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26574,7 +26567,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>109</v>
@@ -26591,10 +26584,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26709,10 +26702,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26829,14 +26822,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -26858,10 +26851,10 @@
         <v>112</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>115</v>
@@ -26916,7 +26909,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26951,10 +26944,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26977,16 +26970,16 @@
         <v>92</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -27036,7 +27029,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>91</v>
@@ -27063,7 +27056,7 @@
         <v>82</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>82</v>
@@ -27071,10 +27064,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27100,10 +27093,10 @@
         <v>172</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27133,10 +27126,10 @@
         <v>263</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -27154,7 +27147,7 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>91</v>
@@ -27172,7 +27165,7 @@
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="871">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:32:44+00:00</t>
+    <t>2025-12-19T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -503,7 +503,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -527,7 +527,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -570,7 +570,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -649,7 +649,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
+    <t xml:space="preserve">Extension {patient-birthPlace}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1353,7 +1353,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1369,6 +1369,10 @@
   </si>
   <si>
     <t>Patient.identifier:NSS.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Patient.identifier:INS-C</t>
@@ -1781,6 +1785,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1827,7 +1834,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
 </t>
   </si>
   <si>
@@ -2080,7 +2087,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
 </t>
   </si>
   <si>
@@ -2129,7 +2136,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -2170,7 +2177,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2262,7 +2269,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2365,7 +2372,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
 </t>
   </si>
   <si>
@@ -2381,7 +2388,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
 </t>
   </si>
   <si>
@@ -2423,7 +2430,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2445,7 +2452,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2457,13 +2464,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
 </t>
   </si>
   <si>
@@ -2653,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
 </t>
   </si>
   <si>
@@ -2677,7 +2684,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -2728,7 +2735,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -3095,7 +3102,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3110,7 +3117,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -10110,7 +10117,7 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>412</v>
@@ -10204,13 +10211,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -10235,7 +10242,7 @@
         <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>359</v>
@@ -10326,7 +10333,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>367</v>
@@ -10444,7 +10451,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>368</v>
@@ -10564,7 +10571,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>369</v>
@@ -10612,7 +10619,7 @@
         <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>82</v>
@@ -10686,7 +10693,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>378</v>
@@ -10718,7 +10725,7 @@
         <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>382</v>
@@ -10734,7 +10741,7 @@
         <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>82</v>
@@ -10808,7 +10815,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>387</v>
@@ -10856,7 +10863,7 @@
         <v>82</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>392</v>
@@ -10930,7 +10937,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>396</v>
@@ -11050,7 +11057,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>404</v>
@@ -11168,7 +11175,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>410</v>
@@ -11194,7 +11201,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>412</v>
@@ -11288,13 +11295,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -11319,7 +11326,7 @@
         <v>357</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>359</v>
@@ -11410,7 +11417,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>367</v>
@@ -11528,7 +11535,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>368</v>
@@ -11648,7 +11655,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>369</v>
@@ -11696,7 +11703,7 @@
         <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>82</v>
@@ -11770,7 +11777,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>378</v>
@@ -11818,7 +11825,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11892,7 +11899,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>387</v>
@@ -11940,7 +11947,7 @@
         <v>82</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>392</v>
@@ -12014,7 +12021,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>396</v>
@@ -12134,7 +12141,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>404</v>
@@ -12252,7 +12259,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>410</v>
@@ -12278,7 +12285,7 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>412</v>
@@ -12372,13 +12379,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -12403,7 +12410,7 @@
         <v>357</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>359</v>
@@ -12474,7 +12481,7 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>363</v>
@@ -12494,7 +12501,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>367</v>
@@ -12612,7 +12619,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>368</v>
@@ -12732,7 +12739,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>369</v>
@@ -12780,7 +12787,7 @@
         <v>82</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>82</v>
@@ -12854,7 +12861,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>378</v>
@@ -12902,7 +12909,7 @@
         <v>82</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>82</v>
@@ -12976,7 +12983,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13024,7 +13031,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>392</v>
@@ -13098,7 +13105,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>396</v>
@@ -13218,7 +13225,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>404</v>
@@ -13336,7 +13343,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>410</v>
@@ -13362,7 +13369,7 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>412</v>
@@ -13456,13 +13463,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>82</v>
@@ -13487,7 +13494,7 @@
         <v>357</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>359</v>
@@ -13578,7 +13585,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>367</v>
@@ -13696,7 +13703,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>368</v>
@@ -13816,7 +13823,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>369</v>
@@ -13864,7 +13871,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13938,7 +13945,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>378</v>
@@ -13986,7 +13993,7 @@
         <v>82</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>82</v>
@@ -14060,7 +14067,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14182,7 +14189,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>396</v>
@@ -14302,7 +14309,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>404</v>
@@ -14420,7 +14427,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>410</v>
@@ -14446,7 +14453,7 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>412</v>
@@ -14540,13 +14547,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
@@ -14571,7 +14578,7 @@
         <v>357</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>359</v>
@@ -14642,7 +14649,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>363</v>
@@ -14662,7 +14669,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>367</v>
@@ -14780,7 +14787,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>368</v>
@@ -14900,7 +14907,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>369</v>
@@ -15022,7 +15029,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>378</v>
@@ -15070,7 +15077,7 @@
         <v>82</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>82</v>
@@ -15144,7 +15151,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15173,7 +15180,7 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>389</v>
@@ -15266,7 +15273,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>396</v>
@@ -15386,7 +15393,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>404</v>
@@ -15504,7 +15511,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>410</v>
@@ -15530,7 +15537,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>412</v>
@@ -15624,13 +15631,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>82</v>
@@ -15655,7 +15662,7 @@
         <v>357</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>359</v>
@@ -15746,7 +15753,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>367</v>
@@ -15864,7 +15871,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>368</v>
@@ -15984,7 +15991,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>369</v>
@@ -16106,7 +16113,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>378</v>
@@ -16154,7 +16161,7 @@
         <v>82</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>82</v>
@@ -16228,7 +16235,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16257,7 +16264,7 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>389</v>
@@ -16276,7 +16283,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>392</v>
@@ -16350,7 +16357,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>396</v>
@@ -16470,7 +16477,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>404</v>
@@ -16588,7 +16595,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>410</v>
@@ -16614,7 +16621,7 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>412</v>
@@ -16708,13 +16715,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -16739,7 +16746,7 @@
         <v>357</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>359</v>
@@ -16830,7 +16837,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>367</v>
@@ -16948,7 +16955,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>368</v>
@@ -17068,7 +17075,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>369</v>
@@ -17190,7 +17197,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>378</v>
@@ -17238,7 +17245,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17312,7 +17319,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17341,7 +17348,7 @@
         <v>133</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>389</v>
@@ -17360,7 +17367,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>392</v>
@@ -17434,7 +17441,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>396</v>
@@ -17554,7 +17561,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>404</v>
@@ -17672,7 +17679,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>410</v>
@@ -17698,7 +17705,7 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>412</v>
@@ -17792,13 +17799,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>82</v>
@@ -17823,7 +17830,7 @@
         <v>357</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>359</v>
@@ -17894,7 +17901,7 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>363</v>
@@ -17914,7 +17921,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>367</v>
@@ -18032,7 +18039,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>368</v>
@@ -18152,7 +18159,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>369</v>
@@ -18200,7 +18207,7 @@
         <v>82</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>82</v>
@@ -18274,7 +18281,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>378</v>
@@ -18322,7 +18329,7 @@
         <v>82</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>82</v>
@@ -18396,7 +18403,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18425,7 +18432,7 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>389</v>
@@ -18444,7 +18451,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>392</v>
@@ -18518,7 +18525,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>396</v>
@@ -18638,7 +18645,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>404</v>
@@ -18756,7 +18763,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>410</v>
@@ -18782,7 +18789,7 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>412</v>
@@ -18876,13 +18883,13 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>82</v>
@@ -18907,7 +18914,7 @@
         <v>357</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>359</v>
@@ -18978,7 +18985,7 @@
         <v>103</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>363</v>
@@ -18998,7 +19005,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>367</v>
@@ -19116,7 +19123,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>368</v>
@@ -19236,7 +19243,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>369</v>
@@ -19284,7 +19291,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -19358,7 +19365,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>378</v>
@@ -19406,7 +19413,7 @@
         <v>82</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>82</v>
@@ -19427,7 +19434,7 @@
         <v>428</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>429</v>
+        <v>556</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -19480,7 +19487,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>387</v>
@@ -19602,7 +19609,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>396</v>
@@ -19722,7 +19729,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>404</v>
@@ -19840,7 +19847,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>410</v>
@@ -19960,10 +19967,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19986,70 +19993,70 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q141" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF141" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20067,13 +20074,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -20084,10 +20091,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20110,19 +20117,19 @@
         <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -20159,7 +20166,7 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
@@ -20169,7 +20176,7 @@
         <v>118</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20187,16 +20194,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20204,13 +20211,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20232,19 +20239,19 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20293,7 +20300,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20311,16 +20318,16 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20328,10 +20335,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20446,10 +20453,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20566,10 +20573,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20595,16 +20602,16 @@
         <v>172</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20614,7 +20621,7 @@
         <v>82</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>82</v>
@@ -20632,10 +20639,10 @@
         <v>263</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>82</v>
@@ -20653,7 +20660,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20680,7 +20687,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20688,10 +20695,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20717,13 +20724,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>284</v>
@@ -20775,7 +20782,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20802,7 +20809,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20810,14 +20817,14 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -20839,13 +20846,13 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20895,7 +20902,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20910,10 +20917,10 @@
         <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>82</v>
@@ -20922,7 +20929,7 @@
         <v>82</v>
       </c>
       <c r="AO148" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20930,14 +20937,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20959,13 +20966,13 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -21015,7 +21022,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21030,10 +21037,10 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>82</v>
@@ -21042,7 +21049,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21050,10 +21057,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21079,10 +21086,10 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21133,7 +21140,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21151,7 +21158,7 @@
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -21160,7 +21167,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21168,10 +21175,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21197,10 +21204,10 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21251,7 +21258,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21269,7 +21276,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21278,7 +21285,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21286,10 +21293,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21315,14 +21322,14 @@
         <v>343</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21371,7 +21378,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21398,7 +21405,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21406,13 +21413,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>82</v>
@@ -21434,19 +21441,19 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21495,7 +21502,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21513,16 +21520,16 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21530,10 +21537,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21648,10 +21655,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21766,13 +21773,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>82</v>
@@ -21794,13 +21801,13 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21866,7 +21873,7 @@
         <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>82</v>
@@ -21886,10 +21893,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21915,16 +21922,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21952,10 +21959,10 @@
         <v>263</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21973,7 +21980,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22000,7 +22007,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22008,10 +22015,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22037,13 +22044,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>284</v>
@@ -22095,7 +22102,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22122,7 +22129,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22130,14 +22137,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22159,13 +22166,13 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22215,7 +22222,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22230,10 +22237,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22242,7 +22249,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22250,14 +22257,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22279,13 +22286,13 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22335,7 +22342,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22350,10 +22357,10 @@
         <v>103</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22362,7 +22369,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22370,10 +22377,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22399,10 +22406,10 @@
         <v>105</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22453,7 +22460,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22468,10 +22475,10 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
@@ -22480,7 +22487,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22488,10 +22495,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22517,10 +22524,10 @@
         <v>105</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22571,7 +22578,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22589,7 +22596,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22598,7 +22605,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22606,10 +22613,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22635,14 +22642,14 @@
         <v>343</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22691,7 +22698,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22718,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22726,10 +22733,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22752,19 +22759,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22813,7 +22820,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22825,13 +22832,13 @@
         <v>206</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>82</v>
@@ -22840,7 +22847,7 @@
         <v>82</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>82</v>
@@ -22848,10 +22855,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22877,16 +22884,16 @@
         <v>172</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22915,7 +22922,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22933,7 +22940,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22948,19 +22955,19 @@
         <v>103</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -22968,10 +22975,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22994,19 +23001,19 @@
         <v>92</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23055,7 +23062,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23070,30 +23077,30 @@
         <v>103</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AP166" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23116,19 +23123,19 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23177,7 +23184,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23195,7 +23202,7 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>109</v>
@@ -23204,7 +23211,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23212,10 +23219,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23250,7 +23257,7 @@
         <v>242</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23299,7 +23306,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23334,10 +23341,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23363,14 +23370,14 @@
         <v>379</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23399,7 +23406,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -23417,7 +23424,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23435,16 +23442,16 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23452,10 +23459,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23478,19 +23485,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23539,7 +23546,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23557,7 +23564,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23566,7 +23573,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23574,10 +23581,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23600,19 +23607,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23661,7 +23668,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23679,7 +23686,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23688,7 +23695,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23696,10 +23703,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23722,19 +23729,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23783,7 +23790,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23795,13 +23802,13 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23818,10 +23825,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23936,10 +23943,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24052,13 +24059,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -24080,13 +24087,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24172,13 +24179,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>82</v>
@@ -24200,13 +24207,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24292,14 +24299,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -24321,10 +24328,10 @@
         <v>112</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>115</v>
@@ -24379,7 +24386,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24414,10 +24421,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24443,14 +24450,14 @@
         <v>379</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24478,16 +24485,16 @@
         <v>154</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB178" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AC178" s="2"/>
       <c r="AD178" t="s" s="2">
@@ -24497,7 +24504,7 @@
         <v>118</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24515,7 +24522,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24524,7 +24531,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24532,13 +24539,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24563,14 +24570,14 @@
         <v>379</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24599,7 +24606,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24617,7 +24624,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24635,7 +24642,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>109</v>
@@ -24644,7 +24651,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24652,13 +24659,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>82</v>
@@ -24683,14 +24690,14 @@
         <v>379</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24719,7 +24726,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -24737,7 +24744,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24755,7 +24762,7 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>109</v>
@@ -24764,7 +24771,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24772,10 +24779,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24798,19 +24805,19 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24859,7 +24866,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24877,7 +24884,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>82</v>
@@ -24886,7 +24893,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24894,10 +24901,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24920,19 +24927,19 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24981,7 +24988,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -24993,13 +25000,13 @@
         <v>206</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>82</v>
@@ -25008,7 +25015,7 @@
         <v>82</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25016,10 +25023,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25042,17 +25049,17 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25101,7 +25108,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25119,7 +25126,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25128,7 +25135,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25136,10 +25143,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25165,14 +25172,14 @@
         <v>172</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25200,10 +25207,10 @@
         <v>263</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -25221,7 +25228,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25239,7 +25246,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25248,7 +25255,7 @@
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25256,10 +25263,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25282,17 +25289,17 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25341,7 +25348,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25350,7 +25357,7 @@
         <v>91</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>103</v>
@@ -25359,7 +25366,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25368,7 +25375,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25376,10 +25383,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25405,10 +25412,10 @@
         <v>343</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25459,7 +25466,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25477,7 +25484,7 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>109</v>
@@ -25494,10 +25501,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25520,19 +25527,19 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25581,7 +25588,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25599,10 +25606,10 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>82</v>
@@ -25616,10 +25623,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25734,10 +25741,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25854,14 +25861,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25883,10 +25890,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25941,7 +25948,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25976,10 +25983,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26005,16 +26012,16 @@
         <v>379</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26063,7 +26070,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26081,16 +26088,16 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26098,10 +26105,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26124,19 +26131,19 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="O192" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26185,7 +26192,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26203,16 +26210,16 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="AM192" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="AN192" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>82</v>
@@ -26220,14 +26227,14 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26246,16 +26253,16 @@
         <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26305,7 +26312,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26323,7 +26330,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26332,7 +26339,7 @@
         <v>82</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>82</v>
@@ -26340,10 +26347,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26366,19 +26373,19 @@
         <v>92</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26427,7 +26434,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26445,10 +26452,10 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -26462,10 +26469,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26488,19 +26495,19 @@
         <v>92</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26549,7 +26556,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26567,7 +26574,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>109</v>
@@ -26584,10 +26591,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26702,10 +26709,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26822,14 +26829,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -26851,10 +26858,10 @@
         <v>112</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>115</v>
@@ -26909,7 +26916,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26944,10 +26951,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26970,16 +26977,16 @@
         <v>92</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -27029,7 +27036,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>91</v>
@@ -27056,7 +27063,7 @@
         <v>82</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>82</v>
@@ -27064,10 +27071,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27093,10 +27100,10 @@
         <v>172</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27126,28 +27133,28 @@
         <v>263</v>
       </c>
       <c r="Y200" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF200" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>91</v>
@@ -27165,7 +27172,7 @@
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="869">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:44:55+00:00</t>
+    <t>2025-12-19T09:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -503,7 +503,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -527,7 +527,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -570,7 +570,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -649,7 +649,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1353,7 +1353,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1369,10 +1369,6 @@
   </si>
   <si>
     <t>Patient.identifier:NSS.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Patient.identifier:INS-C</t>
@@ -1785,9 +1781,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1834,7 +1827,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2087,7 +2080,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2136,7 +2129,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -2177,7 +2170,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2269,7 +2262,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2372,7 +2365,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2388,7 +2381,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2430,7 +2423,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2452,7 +2445,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2464,13 +2457,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2660,7 +2653,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2684,7 +2677,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2735,7 +2728,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -3102,7 +3095,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3117,7 +3110,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -10117,7 +10110,7 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>412</v>
@@ -10211,13 +10204,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -10242,7 +10235,7 @@
         <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>359</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>367</v>
@@ -10451,7 +10444,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>368</v>
@@ -10571,7 +10564,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>369</v>
@@ -10619,7 +10612,7 @@
         <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>82</v>
@@ -10693,7 +10686,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>378</v>
@@ -10725,7 +10718,7 @@
         <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>382</v>
@@ -10741,7 +10734,7 @@
         <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>82</v>
@@ -10815,7 +10808,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>387</v>
@@ -10863,7 +10856,7 @@
         <v>82</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>392</v>
@@ -10937,7 +10930,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>396</v>
@@ -11057,7 +11050,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>404</v>
@@ -11175,7 +11168,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>410</v>
@@ -11201,7 +11194,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>412</v>
@@ -11295,13 +11288,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -11326,7 +11319,7 @@
         <v>357</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>359</v>
@@ -11417,7 +11410,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>367</v>
@@ -11535,7 +11528,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>368</v>
@@ -11655,7 +11648,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>369</v>
@@ -11703,7 +11696,7 @@
         <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>82</v>
@@ -11777,7 +11770,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>378</v>
@@ -11825,7 +11818,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11899,7 +11892,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>387</v>
@@ -11947,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>392</v>
@@ -12021,7 +12014,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>396</v>
@@ -12141,7 +12134,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>404</v>
@@ -12259,7 +12252,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>410</v>
@@ -12285,7 +12278,7 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>412</v>
@@ -12379,13 +12372,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -12410,7 +12403,7 @@
         <v>357</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>359</v>
@@ -12481,7 +12474,7 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>363</v>
@@ -12501,7 +12494,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>367</v>
@@ -12619,7 +12612,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>368</v>
@@ -12739,7 +12732,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>369</v>
@@ -12787,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>82</v>
@@ -12861,7 +12854,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>378</v>
@@ -12909,7 +12902,7 @@
         <v>82</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>82</v>
@@ -12983,7 +12976,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13031,7 +13024,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>392</v>
@@ -13105,7 +13098,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>396</v>
@@ -13225,7 +13218,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>404</v>
@@ -13343,7 +13336,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>410</v>
@@ -13369,7 +13362,7 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>412</v>
@@ -13463,13 +13456,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>82</v>
@@ -13494,7 +13487,7 @@
         <v>357</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>359</v>
@@ -13585,7 +13578,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>367</v>
@@ -13703,7 +13696,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>368</v>
@@ -13823,7 +13816,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>369</v>
@@ -13871,7 +13864,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13945,7 +13938,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>378</v>
@@ -13993,7 +13986,7 @@
         <v>82</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>82</v>
@@ -14067,7 +14060,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14189,7 +14182,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>396</v>
@@ -14309,7 +14302,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>404</v>
@@ -14427,7 +14420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>410</v>
@@ -14453,7 +14446,7 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>412</v>
@@ -14547,13 +14540,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
@@ -14578,7 +14571,7 @@
         <v>357</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>359</v>
@@ -14649,7 +14642,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>363</v>
@@ -14669,7 +14662,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>367</v>
@@ -14787,7 +14780,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>368</v>
@@ -14907,7 +14900,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>369</v>
@@ -15029,7 +15022,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>378</v>
@@ -15077,7 +15070,7 @@
         <v>82</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>82</v>
@@ -15151,7 +15144,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15180,7 +15173,7 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>389</v>
@@ -15273,7 +15266,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>396</v>
@@ -15393,7 +15386,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>404</v>
@@ -15511,7 +15504,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>410</v>
@@ -15537,7 +15530,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>412</v>
@@ -15631,13 +15624,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>82</v>
@@ -15662,7 +15655,7 @@
         <v>357</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>359</v>
@@ -15753,7 +15746,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>367</v>
@@ -15871,7 +15864,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>368</v>
@@ -15991,7 +15984,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>369</v>
@@ -16113,7 +16106,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>378</v>
@@ -16161,7 +16154,7 @@
         <v>82</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>82</v>
@@ -16235,7 +16228,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16264,7 +16257,7 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>389</v>
@@ -16283,7 +16276,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>392</v>
@@ -16357,7 +16350,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>396</v>
@@ -16477,7 +16470,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>404</v>
@@ -16595,7 +16588,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>410</v>
@@ -16621,7 +16614,7 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>412</v>
@@ -16715,13 +16708,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -16746,7 +16739,7 @@
         <v>357</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>359</v>
@@ -16837,7 +16830,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>367</v>
@@ -16955,7 +16948,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>368</v>
@@ -17075,7 +17068,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>369</v>
@@ -17197,7 +17190,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>378</v>
@@ -17245,7 +17238,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17319,7 +17312,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17348,7 +17341,7 @@
         <v>133</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>389</v>
@@ -17367,7 +17360,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>392</v>
@@ -17441,7 +17434,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>396</v>
@@ -17561,7 +17554,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>404</v>
@@ -17679,7 +17672,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>410</v>
@@ -17705,7 +17698,7 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>412</v>
@@ -17799,13 +17792,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>82</v>
@@ -17830,7 +17823,7 @@
         <v>357</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>359</v>
@@ -17901,7 +17894,7 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>363</v>
@@ -17921,7 +17914,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>367</v>
@@ -18039,7 +18032,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>368</v>
@@ -18159,7 +18152,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>369</v>
@@ -18207,7 +18200,7 @@
         <v>82</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18274,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>378</v>
@@ -18329,7 +18322,7 @@
         <v>82</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>82</v>
@@ -18403,7 +18396,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18432,7 +18425,7 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>389</v>
@@ -18451,7 +18444,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>392</v>
@@ -18525,7 +18518,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>396</v>
@@ -18645,7 +18638,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>404</v>
@@ -18763,7 +18756,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>410</v>
@@ -18789,7 +18782,7 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>412</v>
@@ -18883,13 +18876,13 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>82</v>
@@ -18914,7 +18907,7 @@
         <v>357</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>359</v>
@@ -18985,7 +18978,7 @@
         <v>103</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>363</v>
@@ -19005,7 +18998,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>367</v>
@@ -19123,7 +19116,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>368</v>
@@ -19243,7 +19236,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>369</v>
@@ -19291,7 +19284,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -19365,7 +19358,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>378</v>
@@ -19413,7 +19406,7 @@
         <v>82</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>82</v>
@@ -19434,7 +19427,7 @@
         <v>428</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -19487,7 +19480,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>387</v>
@@ -19609,7 +19602,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>396</v>
@@ -19729,7 +19722,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>404</v>
@@ -19847,7 +19840,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>410</v>
@@ -19967,10 +19960,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19993,26 +19986,26 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="P141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q141" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="O141" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="R141" t="s" s="2">
         <v>82</v>
       </c>
@@ -20056,7 +20049,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,13 +20067,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20084,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20117,19 +20110,19 @@
         <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -20166,7 +20159,7 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
@@ -20176,7 +20169,7 @@
         <v>118</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20194,16 +20187,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20211,13 +20204,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20239,19 +20232,19 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20300,7 +20293,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20318,16 +20311,16 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20335,10 +20328,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20453,10 +20446,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20573,10 +20566,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20602,16 +20595,16 @@
         <v>172</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20621,7 +20614,7 @@
         <v>82</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>82</v>
@@ -20639,28 +20632,28 @@
         <v>263</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20687,7 +20680,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20695,10 +20688,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20724,13 +20717,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>284</v>
@@ -20782,7 +20775,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20809,7 +20802,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20817,14 +20810,14 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -20846,13 +20839,13 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20902,7 +20895,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20917,19 +20910,19 @@
         <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO148" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20937,14 +20930,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20966,13 +20959,13 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -21022,7 +21015,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21037,19 +21030,19 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO149" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21057,10 +21050,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21086,10 +21079,10 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21140,7 +21133,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21158,7 +21151,7 @@
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -21167,7 +21160,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21175,10 +21168,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21204,10 +21197,10 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21258,7 +21251,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21276,7 +21269,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21285,7 +21278,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21293,10 +21286,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21322,14 +21315,14 @@
         <v>343</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21378,7 +21371,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21405,7 +21398,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21413,13 +21406,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>82</v>
@@ -21441,19 +21434,19 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21502,7 +21495,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21520,16 +21513,16 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO153" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO153" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21537,10 +21530,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21655,10 +21648,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21773,13 +21766,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>82</v>
@@ -21801,13 +21794,13 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21873,7 +21866,7 @@
         <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>82</v>
@@ -21893,10 +21886,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21922,16 +21915,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,28 +21952,28 @@
         <v>263</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF157" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22007,7 +22000,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22015,10 +22008,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22044,13 +22037,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>284</v>
@@ -22102,7 +22095,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22129,7 +22122,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22137,14 +22130,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22166,13 +22159,13 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22222,7 +22215,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22237,10 +22230,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22249,7 +22242,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22257,14 +22250,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22286,13 +22279,13 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22342,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22357,10 +22350,10 @@
         <v>103</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22369,7 +22362,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22377,10 +22370,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22406,10 +22399,10 @@
         <v>105</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22460,7 +22453,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22475,10 +22468,10 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
@@ -22487,7 +22480,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22495,10 +22488,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22524,10 +22517,10 @@
         <v>105</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22578,7 +22571,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22596,7 +22589,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22605,7 +22598,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22613,10 +22606,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22642,14 +22635,14 @@
         <v>343</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22691,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22725,7 +22718,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22733,10 +22726,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22759,19 +22752,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22820,7 +22813,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22832,22 +22825,22 @@
         <v>206</v>
       </c>
       <c r="AJ164" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO164" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO164" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>82</v>
@@ -22855,10 +22848,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22884,16 +22877,16 @@
         <v>172</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22922,7 +22915,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22940,7 +22933,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22955,19 +22948,19 @@
         <v>103</v>
       </c>
       <c r="AK165" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AM165" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="AL165" t="s" s="2">
+      <c r="AN165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO165" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -22975,10 +22968,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23001,19 +22994,19 @@
         <v>92</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23062,7 +23055,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23077,30 +23070,30 @@
         <v>103</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM166" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AL166" t="s" s="2">
+      <c r="AN166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO166" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="AM166" t="s" s="2">
+      <c r="AP166" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AP166" t="s" s="2">
-        <v>698</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23123,19 +23116,19 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23184,7 +23177,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23202,7 +23195,7 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>109</v>
@@ -23211,7 +23204,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23219,10 +23212,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23257,7 +23250,7 @@
         <v>242</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23306,7 +23299,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23341,10 +23334,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23370,14 +23363,14 @@
         <v>379</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23406,7 +23399,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -23424,7 +23417,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23442,16 +23435,16 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO169" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23459,10 +23452,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23485,19 +23478,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23546,7 +23539,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23564,7 +23557,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23573,7 +23566,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23581,10 +23574,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23607,19 +23600,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23668,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23686,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23695,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23703,10 +23696,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23729,19 +23722,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23790,7 +23783,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23802,13 +23795,13 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23825,10 +23818,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23943,10 +23936,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24059,13 +24052,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -24087,13 +24080,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24179,13 +24172,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>82</v>
@@ -24207,13 +24200,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24299,14 +24292,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -24328,10 +24321,10 @@
         <v>112</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>115</v>
@@ -24386,7 +24379,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24421,10 +24414,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24450,14 +24443,14 @@
         <v>379</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24485,16 +24478,16 @@
         <v>154</v>
       </c>
       <c r="Y178" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AC178" s="2"/>
       <c r="AD178" t="s" s="2">
@@ -24504,7 +24497,7 @@
         <v>118</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24522,7 +24515,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24531,7 +24524,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24539,13 +24532,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24570,14 +24563,14 @@
         <v>379</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24606,7 +24599,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24624,7 +24617,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24642,7 +24635,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>109</v>
@@ -24651,7 +24644,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24659,13 +24652,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>82</v>
@@ -24690,14 +24683,14 @@
         <v>379</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24726,7 +24719,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -24744,7 +24737,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24762,7 +24755,7 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>109</v>
@@ -24771,7 +24764,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24779,10 +24772,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24805,19 +24798,19 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="O181" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24866,7 +24859,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24884,7 +24877,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>82</v>
@@ -24893,7 +24886,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24901,10 +24894,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24927,19 +24920,19 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L182" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O182" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24988,7 +24981,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25000,22 +24993,22 @@
         <v>206</v>
       </c>
       <c r="AJ182" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25023,10 +25016,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,17 +25042,17 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25108,7 +25101,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25126,7 +25119,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25135,7 +25128,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25143,10 +25136,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25172,14 +25165,14 @@
         <v>172</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25207,10 +25200,10 @@
         <v>263</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -25228,7 +25221,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25246,7 +25239,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25255,7 +25248,7 @@
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25263,10 +25256,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25289,17 +25282,17 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25348,7 +25341,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25357,7 +25350,7 @@
         <v>91</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>103</v>
@@ -25366,7 +25359,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25375,7 +25368,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25383,10 +25376,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25412,10 +25405,10 @@
         <v>343</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25466,7 +25459,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25484,7 +25477,7 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>109</v>
@@ -25501,10 +25494,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25527,19 +25520,19 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25588,7 +25581,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25606,10 +25599,10 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>82</v>
@@ -25623,10 +25616,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25741,10 +25734,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25861,14 +25854,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25890,10 +25883,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25948,7 +25941,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25983,10 +25976,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26012,16 +26005,16 @@
         <v>379</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26070,7 +26063,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26088,16 +26081,16 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26098,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26131,19 +26124,19 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26192,7 +26185,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26210,16 +26203,16 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO192" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>82</v>
@@ -26227,14 +26220,14 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26253,16 +26246,16 @@
         <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26312,7 +26305,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26330,7 +26323,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26339,7 +26332,7 @@
         <v>82</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>82</v>
@@ -26347,10 +26340,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26373,19 +26366,19 @@
         <v>92</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>846</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26434,7 +26427,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26452,10 +26445,10 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -26469,10 +26462,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26495,19 +26488,19 @@
         <v>92</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26556,7 +26549,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26574,7 +26567,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>109</v>
@@ -26591,10 +26584,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26709,10 +26702,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26829,14 +26822,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -26858,10 +26851,10 @@
         <v>112</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>115</v>
@@ -26916,7 +26909,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26951,10 +26944,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26977,16 +26970,16 @@
         <v>92</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -27036,7 +27029,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>91</v>
@@ -27063,7 +27056,7 @@
         <v>82</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>82</v>
@@ -27071,10 +27064,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27100,10 +27093,10 @@
         <v>172</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27133,10 +27126,10 @@
         <v>263</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -27154,7 +27147,7 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>91</v>
@@ -27172,7 +27165,7 @@
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>109</v>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:03:44+00:00</t>
+    <t>2025-12-19T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/main/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T09:25:15+00:00</t>
+    <t>2025-12-19T09:58:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
